--- a/StructureDefinition-be-referralprescription-nursing-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-other.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="554">
   <si>
     <t>Path</t>
   </si>
@@ -1229,11 +1229,11 @@
     <t>ServiceRequest.quantity[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>If needed amount in ml</t>
+    <t>Quantity
+RatioRange</t>
+  </si>
+  <si>
+    <t>Service amount</t>
   </si>
   <si>
     <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
@@ -1243,140 +1243,6 @@
   </si>
   <si>
     <t>.quantity</t>
-  </si>
-  <si>
-    <t>ServiceRequest.quantity[x].id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.quantity[x].extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.quantity[x].value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>ServiceRequest.quantity[x].comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>ServiceRequest.quantity[x].unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>ServiceRequest.quantity[x].system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>http://unitsofmeasure.org</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>ServiceRequest.quantity[x].code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>ServiceRequest.subject</t>
@@ -1823,7 +1689,7 @@
 </t>
   </si>
   <si>
-    <t>If needed explain product and time to leave the product</t>
+    <t>If needed to give further details</t>
   </si>
   <si>
     <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
@@ -2020,7 +1886,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN88"/>
+  <dimension ref="A1:AN81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9029,7 +8895,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>391</v>
       </c>
@@ -9045,7 +8911,7 @@
         <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>44</v>
@@ -9143,7 +9009,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>397</v>
       </c>
@@ -9153,28 +9019,28 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>54</v>
+        <v>398</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>113</v>
+        <v>399</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>114</v>
+        <v>400</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9225,10 +9091,10 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>115</v>
+        <v>397</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>52</v>
@@ -9237,38 +9103,38 @@
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>44</v>
+        <v>401</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>116</v>
+        <v>403</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>44</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>140</v>
+        <v>407</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>44</v>
@@ -9277,20 +9143,18 @@
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>97</v>
+        <v>408</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>161</v>
+        <v>409</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
@@ -9327,65 +9191,65 @@
         <v>44</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>119</v>
+        <v>406</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>44</v>
+        <v>411</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>44</v>
+        <v>412</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>116</v>
+        <v>413</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>44</v>
+        <v>414</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>44</v>
+        <v>415</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>44</v>
+        <v>417</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>44</v>
@@ -9394,20 +9258,16 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>44</v>
       </c>
@@ -9455,7 +9315,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9470,24 +9330,24 @@
         <v>64</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>44</v>
+        <v>421</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>44</v>
+        <v>425</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9498,36 +9358,32 @@
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>72</v>
+        <v>427</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>411</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P66" t="s" s="2">
-        <v>412</v>
-      </c>
+      <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
         <v>44</v>
       </c>
@@ -9547,13 +9403,13 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>44</v>
@@ -9571,7 +9427,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9589,35 +9445,35 @@
         <v>44</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>416</v>
+        <v>44</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>44</v>
+        <v>433</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>44</v>
+        <v>435</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>44</v>
@@ -9626,24 +9482,22 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>54</v>
+        <v>436</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>421</v>
-      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>422</v>
+        <v>44</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>44</v>
@@ -9685,7 +9539,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9700,28 +9554,28 @@
         <v>64</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>44</v>
+        <v>439</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>44</v>
+        <v>442</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>44</v>
+        <v>443</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>44</v>
+        <v>445</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9731,7 +9585,7 @@
         <v>52</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>44</v>
@@ -9740,24 +9594,24 @@
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>66</v>
+        <v>446</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>430</v>
+        <v>44</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>44</v>
@@ -9799,7 +9653,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9808,44 +9662,44 @@
         <v>52</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>432</v>
+        <v>44</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>44</v>
+        <v>453</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>44</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>44</v>
+        <v>456</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>44</v>
@@ -9854,26 +9708,24 @@
         <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>422</v>
+        <v>44</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>44</v>
@@ -9891,13 +9743,13 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>44</v>
+        <v>460</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>44</v>
+        <v>461</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -9915,7 +9767,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9930,16 +9782,16 @@
         <v>64</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>44</v>
+        <v>462</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>44</v>
+        <v>465</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -9947,18 +9799,18 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>44</v>
+        <v>467</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>53</v>
@@ -9970,15 +9822,17 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>44</v>
@@ -10027,13 +9881,13 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>44</v>
@@ -10042,35 +9896,35 @@
         <v>64</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>449</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>451</v>
+        <v>44</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>44</v>
@@ -10082,13 +9936,13 @@
         <v>53</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>452</v>
+        <v>135</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10115,13 +9969,13 @@
         <v>44</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>44</v>
+        <v>478</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>44</v>
+        <v>479</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>44</v>
@@ -10139,13 +9993,13 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>44</v>
@@ -10154,38 +10008,38 @@
         <v>64</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>455</v>
+        <v>44</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>456</v>
+        <v>44</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>459</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>461</v>
+        <v>44</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>44</v>
@@ -10194,13 +10048,13 @@
         <v>53</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10251,13 +10105,13 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>44</v>
@@ -10266,24 +10120,24 @@
         <v>64</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AK72" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="AN72" t="s" s="2">
-        <v>469</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10294,7 +10148,7 @@
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>53</v>
@@ -10306,15 +10160,17 @@
         <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>471</v>
+        <v>135</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>44</v>
@@ -10342,10 +10198,10 @@
         <v>129</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>44</v>
@@ -10363,13 +10219,13 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>44</v>
@@ -10378,38 +10234,38 @@
         <v>64</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>44</v>
+        <v>491</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>44</v>
+        <v>492</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>44</v>
+        <v>494</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>477</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>479</v>
+        <v>44</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>44</v>
@@ -10418,15 +10274,17 @@
         <v>53</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -10475,13 +10333,13 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>44</v>
@@ -10490,57 +10348,55 @@
         <v>64</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>487</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>489</v>
+        <v>44</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>44</v>
@@ -10589,13 +10445,13 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>44</v>
@@ -10604,35 +10460,35 @@
         <v>64</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>497</v>
+        <v>44</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>498</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>53</v>
@@ -10641,19 +10497,19 @@
         <v>44</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>135</v>
+        <v>512</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10679,13 +10535,13 @@
         <v>44</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>504</v>
+        <v>44</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>505</v>
+        <v>44</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>44</v>
@@ -10703,13 +10559,13 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>44</v>
@@ -10718,28 +10574,28 @@
         <v>64</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>509</v>
+        <v>44</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>511</v>
+        <v>44</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10749,7 +10605,7 @@
         <v>43</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>44</v>
@@ -10758,16 +10614,16 @@
         <v>53</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10817,7 +10673,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10832,28 +10688,28 @@
         <v>64</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>516</v>
+        <v>44</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>509</v>
+        <v>44</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>44</v>
+        <v>527</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10863,7 +10719,7 @@
         <v>43</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>44</v>
@@ -10875,13 +10731,17 @@
         <v>135</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>44</v>
       </c>
@@ -10908,10 +10768,10 @@
         <v>129</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>44</v>
@@ -10929,7 +10789,7 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10947,21 +10807,21 @@
         <v>44</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>44</v>
+        <v>524</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>509</v>
+        <v>44</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>44</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10975,22 +10835,22 @@
         <v>43</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11041,7 +10901,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -11056,24 +10916,24 @@
         <v>64</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>44</v>
+        <v>540</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>44</v>
+        <v>390</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>509</v>
+        <v>44</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>44</v>
+        <v>542</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11084,7 +10944,7 @@
         <v>42</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>53</v>
@@ -11096,17 +10956,15 @@
         <v>53</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>44</v>
@@ -11131,13 +10989,13 @@
         <v>44</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>533</v>
+        <v>44</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>534</v>
+        <v>44</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>44</v>
@@ -11155,13 +11013,13 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>44</v>
@@ -11170,16 +11028,16 @@
         <v>64</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>535</v>
+        <v>44</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>536</v>
+        <v>390</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>538</v>
+        <v>44</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>44</v>
@@ -11187,7 +11045,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11207,19 +11065,19 @@
         <v>44</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11269,7 +11127,7 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -11284,817 +11142,23 @@
         <v>64</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>545</v>
+        <v>95</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>538</v>
+        <v>44</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN88" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN88">
+  <autoFilter ref="A1:AN81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12104,7 +11168,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-other.xlsx
@@ -8796,7 +8796,7 @@
         <v>52</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>53</v>

--- a/StructureDefinition-be-referralprescription-nursing-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-other.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="538">
   <si>
     <t>Path</t>
   </si>
@@ -369,7 +369,81 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.id</t>
+    <t>informParty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
+</t>
+  </si>
+  <si>
+    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.identifier</t>
+  </si>
+  <si>
+    <t>UHMEP</t>
+  </si>
+  <si>
+    <t>Reference ID of the UHMEP once available there</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -384,7 +458,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.extension</t>
+    <t>ServiceRequest.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -393,175 +473,43 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/request-statusReason</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying the reason for the current state of an event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
+    <t>ServiceRequest.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
-</t>
-  </si>
-  <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
-  </si>
-  <si>
-    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.identifier</t>
-  </si>
-  <si>
-    <t>UHMEP</t>
-  </si>
-  <si>
-    <t>Reference ID of the UHMEP once available there</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -1348,6 +1296,9 @@
   </si>
   <si>
     <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
@@ -1886,7 +1837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN81"/>
+  <dimension ref="A1:AN76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1896,7 +1847,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3079,11 +3030,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>44</v>
       </c>
@@ -3092,10 +3045,10 @@
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>44</v>
@@ -3104,13 +3057,13 @@
         <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3161,19 +3114,19 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>44</v>
@@ -3182,7 +3135,7 @@
         <v>44</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>44</v>
@@ -3193,24 +3146,24 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>44</v>
@@ -3219,13 +3172,17 @@
         <v>97</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>44</v>
       </c>
@@ -3261,19 +3218,19 @@
         <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -3294,7 +3251,7 @@
         <v>44</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>44</v>
@@ -3305,7 +3262,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3313,31 +3270,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3345,7 +3302,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>44</v>
@@ -3375,59 +3332,59 @@
         <v>44</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>52</v>
@@ -3439,18 +3396,20 @@
         <v>44</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3475,10 +3434,10 @@
         <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>44</v>
@@ -3487,23 +3446,25 @@
         <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB14" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>44</v>
@@ -3512,34 +3473,32 @@
         <v>64</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>52</v>
@@ -3554,13 +3513,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3587,10 +3546,10 @@
         <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="Y15" t="s" s="2">
         <v>44</v>
@@ -3611,7 +3570,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3623,7 +3582,7 @@
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>44</v>
@@ -3632,7 +3591,7 @@
         <v>44</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>44</v>
@@ -3641,15 +3600,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3659,7 +3616,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>44</v>
@@ -3668,15 +3625,17 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3713,19 +3672,19 @@
         <v>44</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3734,7 +3693,7 @@
         <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>103</v>
@@ -3746,7 +3705,7 @@
         <v>44</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>44</v>
@@ -3757,18 +3716,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>44</v>
@@ -3777,22 +3736,22 @@
         <v>53</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3817,13 +3776,13 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
@@ -3841,28 +3800,28 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>44</v>
@@ -3873,7 +3832,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3884,10 +3843,10 @@
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>44</v>
@@ -3896,18 +3855,20 @@
         <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
       </c>
@@ -3931,35 +3892,37 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>44</v>
@@ -3968,34 +3931,32 @@
         <v>64</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>154</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>52</v>
@@ -4010,30 +3971,32 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>44</v>
@@ -4069,13 +4032,13 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>44</v>
@@ -4084,24 +4047,24 @@
         <v>64</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4109,7 +4072,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>52</v>
@@ -4121,18 +4084,20 @@
         <v>44</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -4145,7 +4110,7 @@
         <v>44</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>44</v>
@@ -4181,7 +4146,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4193,16 +4158,16 @@
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>44</v>
@@ -4213,18 +4178,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>44</v>
@@ -4233,20 +4198,18 @@
         <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>44</v>
@@ -4283,40 +4246,40 @@
         <v>44</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>44</v>
@@ -4327,7 +4290,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4344,26 +4307,24 @@
         <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
@@ -4387,13 +4348,13 @@
         <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
@@ -4411,7 +4372,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4429,10 +4390,10 @@
         <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
@@ -4443,7 +4404,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4454,7 +4415,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>44</v>
@@ -4466,20 +4427,18 @@
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>44</v>
       </c>
@@ -4503,13 +4462,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4527,13 +4486,13 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>44</v>
@@ -4542,13 +4501,13 @@
         <v>64</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>44</v>
@@ -4559,7 +4518,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4567,10 +4526,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -4585,29 +4544,27 @@
         <v>66</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>44</v>
@@ -4643,13 +4600,13 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>44</v>
@@ -4658,13 +4615,13 @@
         <v>64</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>44</v>
@@ -4675,18 +4632,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>44</v>
@@ -4698,17 +4655,15 @@
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4721,7 +4676,7 @@
         <v>44</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>44</v>
@@ -4757,13 +4712,13 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>44</v>
@@ -4772,13 +4727,13 @@
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>44</v>
@@ -4789,18 +4744,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
@@ -4812,13 +4767,13 @@
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4869,13 +4824,13 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
@@ -4884,13 +4839,13 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -4899,13 +4854,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4915,7 +4870,7 @@
         <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>44</v>
@@ -4924,18 +4879,20 @@
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>209</v>
+        <v>123</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4983,7 +4940,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4998,13 +4955,13 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>44</v>
@@ -5013,9 +4970,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5023,31 +4980,31 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5073,13 +5030,13 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -5097,13 +5054,13 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>44</v>
@@ -5112,24 +5069,24 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>44</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5137,31 +5094,31 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5187,13 +5144,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5211,13 +5168,13 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -5226,38 +5183,38 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>44</v>
@@ -5266,16 +5223,20 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -5299,13 +5260,11 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -5323,7 +5282,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5338,16 +5297,16 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5355,18 +5314,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -5375,16 +5334,16 @@
         <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>238</v>
+        <v>54</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5435,28 +5394,28 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>44</v>
@@ -5465,45 +5424,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>245</v>
+        <v>116</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>142</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5539,40 +5496,40 @@
         <v>44</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
@@ -5581,9 +5538,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5591,33 +5548,35 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5641,13 +5600,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5665,13 +5624,13 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
@@ -5680,24 +5639,24 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>263</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5705,7 +5664,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>52</v>
@@ -5714,23 +5673,21 @@
         <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5755,13 +5712,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5779,10 +5736,10 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>52</v>
@@ -5791,63 +5748,61 @@
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5871,29 +5826,31 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5905,19 +5862,19 @@
         <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>280</v>
+        <v>139</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5925,7 +5882,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5945,25 +5902,29 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>44</v>
@@ -6005,7 +5966,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -6017,16 +5978,16 @@
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>44</v>
@@ -6037,18 +5998,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -6057,19 +6018,19 @@
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>143</v>
+        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6107,40 +6068,40 @@
         <v>44</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
@@ -6151,7 +6112,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6162,7 +6123,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -6174,26 +6135,24 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>44</v>
@@ -6235,13 +6194,13 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
@@ -6253,10 +6212,10 @@
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -6267,7 +6226,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6287,19 +6246,21 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
       </c>
@@ -6347,7 +6308,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6359,16 +6320,16 @@
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
@@ -6379,18 +6340,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
@@ -6399,21 +6360,23 @@
         <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6449,40 +6412,40 @@
         <v>44</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>119</v>
+        <v>314</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>44</v>
@@ -6493,7 +6456,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6516,26 +6479,26 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>44</v>
@@ -6577,7 +6540,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6595,10 +6558,10 @@
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
@@ -6609,7 +6572,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6632,22 +6595,22 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="Q42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6667,13 +6630,13 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6691,7 +6654,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6706,16 +6669,16 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6723,7 +6686,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6740,30 +6703,34 @@
         <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="N43" t="s" s="2">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="Q43" t="s" s="2">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>44</v>
@@ -6805,7 +6772,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6820,13 +6787,13 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6835,23 +6802,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>44</v>
@@ -6860,18 +6827,18 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6895,13 +6862,11 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6919,7 +6884,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6934,24 +6899,24 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>44</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6971,23 +6936,19 @@
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
       </c>
@@ -7035,7 +6996,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>331</v>
+        <v>138</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -7047,16 +7008,16 @@
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>333</v>
+        <v>139</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
@@ -7067,18 +7028,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
@@ -7087,23 +7048,21 @@
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>335</v>
+        <v>141</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>336</v>
+        <v>142</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
@@ -7139,40 +7098,40 @@
         <v>44</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>339</v>
+        <v>144</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>341</v>
+        <v>139</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -7183,7 +7142,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7194,7 +7153,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -7206,22 +7165,24 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>343</v>
+        <v>268</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P47" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7241,13 +7202,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>346</v>
+        <v>44</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -7265,13 +7226,13 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
@@ -7280,16 +7241,16 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>348</v>
+        <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>273</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>351</v>
+        <v>44</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -7297,7 +7258,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7314,32 +7275,26 @@
         <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>353</v>
+        <v>136</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P48" t="s" s="2">
-        <v>357</v>
-      </c>
+      <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7383,7 +7338,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>352</v>
+        <v>138</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7395,59 +7350,59 @@
         <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>361</v>
+        <v>116</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>141</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>142</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>364</v>
+        <v>119</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7473,61 +7428,63 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>360</v>
+        <v>144</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>366</v>
+        <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>367</v>
+        <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>368</v>
+        <v>139</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>370</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7547,19 +7504,23 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7607,7 +7568,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7619,16 +7580,16 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
@@ -7639,18 +7600,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7659,19 +7620,19 @@
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>143</v>
+        <v>289</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7709,40 +7670,40 @@
         <v>44</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
@@ -7753,7 +7714,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7764,7 +7725,7 @@
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -7776,26 +7737,24 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>44</v>
@@ -7837,13 +7796,13 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
@@ -7855,10 +7814,10 @@
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7869,7 +7828,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7889,19 +7848,21 @@
         <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>44</v>
       </c>
@@ -7949,7 +7910,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7961,16 +7922,16 @@
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7981,18 +7942,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
@@ -8001,21 +7962,23 @@
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -8051,40 +8014,40 @@
         <v>44</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>119</v>
+        <v>314</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -8095,7 +8058,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8118,19 +8081,19 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -8179,7 +8142,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8197,10 +8160,10 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -8209,23 +8172,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>44</v>
+        <v>367</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>44</v>
@@ -8234,16 +8197,16 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>304</v>
+        <v>368</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8269,13 +8232,11 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -8293,16 +8254,16 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>64</v>
@@ -8311,21 +8272,21 @@
         <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>44</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8348,24 +8309,24 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>313</v>
+        <v>378</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>44</v>
@@ -8407,7 +8368,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8425,10 +8386,10 @@
         <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
@@ -8437,7 +8398,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>380</v>
       </c>
@@ -8447,13 +8408,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>44</v>
@@ -8462,18 +8423,16 @@
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>54</v>
+        <v>381</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>319</v>
+        <v>382</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>320</v>
+        <v>383</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>321</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8521,10 +8480,10 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>322</v>
+        <v>380</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>52</v>
@@ -8536,28 +8495,28 @@
         <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>323</v>
+        <v>385</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>324</v>
+        <v>386</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>44</v>
+        <v>387</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>44</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>44</v>
+        <v>390</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8576,20 +8535,16 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>326</v>
+        <v>391</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>327</v>
+        <v>392</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8637,7 +8592,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8652,28 +8607,28 @@
         <v>64</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>44</v>
+        <v>394</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>332</v>
+        <v>395</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>44</v>
+        <v>397</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8683,7 +8638,7 @@
         <v>52</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>44</v>
@@ -8692,20 +8647,16 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>54</v>
+        <v>401</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>335</v>
+        <v>402</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8753,7 +8704,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>339</v>
+        <v>399</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8768,35 +8719,35 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>340</v>
+        <v>405</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>341</v>
+        <v>406</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>44</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>384</v>
+        <v>44</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>53</v>
@@ -8808,17 +8759,15 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>135</v>
+        <v>410</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8843,11 +8792,13 @@
         <v>44</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X61" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="Y61" t="s" s="2">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -8865,16 +8816,16 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>64</v>
@@ -8883,25 +8834,25 @@
         <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>370</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>44</v>
+        <v>419</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8911,7 +8862,7 @@
         <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>44</v>
@@ -8920,18 +8871,16 @@
         <v>53</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>395</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8979,7 +8928,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8994,28 +8943,28 @@
         <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>44</v>
+        <v>423</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>44</v>
+        <v>426</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>44</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9034,15 +8983,17 @@
         <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
@@ -9091,10 +9042,10 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>52</v>
@@ -9106,28 +9057,28 @@
         <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>405</v>
+        <v>438</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9137,7 +9088,7 @@
         <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>44</v>
@@ -9146,15 +9097,17 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>408</v>
+        <v>156</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
@@ -9179,13 +9132,13 @@
         <v>44</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>44</v>
+        <v>413</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>44</v>
+        <v>445</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>44</v>
@@ -9203,7 +9156,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9218,35 +9171,35 @@
         <v>64</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>415</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>53</v>
@@ -9258,15 +9211,17 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9315,13 +9270,13 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>44</v>
@@ -9330,24 +9285,24 @@
         <v>64</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>425</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9358,10 +9313,10 @@
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>44</v>
@@ -9370,13 +9325,13 @@
         <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>427</v>
+        <v>156</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9403,13 +9358,13 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>129</v>
+        <v>413</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>44</v>
@@ -9427,13 +9382,13 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
@@ -9448,32 +9403,32 @@
         <v>44</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>44</v>
+        <v>449</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>433</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>44</v>
@@ -9482,13 +9437,13 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9539,13 +9494,13 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
@@ -9554,35 +9509,35 @@
         <v>64</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>439</v>
+        <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>440</v>
+        <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>443</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>445</v>
+        <v>44</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>53</v>
@@ -9594,16 +9549,16 @@
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>446</v>
+        <v>156</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9629,13 +9584,13 @@
         <v>44</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>44</v>
+        <v>413</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>44</v>
+        <v>473</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>44</v>
+        <v>474</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -9653,13 +9608,13 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>44</v>
@@ -9668,38 +9623,38 @@
         <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>454</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>456</v>
+        <v>44</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>44</v>
@@ -9708,16 +9663,16 @@
         <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>135</v>
+        <v>480</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9743,13 +9698,13 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>460</v>
+        <v>44</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>461</v>
+        <v>44</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -9767,13 +9722,13 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>44</v>
@@ -9782,28 +9737,28 @@
         <v>64</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>467</v>
+        <v>44</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9813,26 +9768,24 @@
         <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>44</v>
@@ -9881,7 +9834,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9896,28 +9849,28 @@
         <v>64</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>44</v>
+        <v>495</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9927,24 +9880,26 @@
         <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>135</v>
+        <v>496</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>44</v>
@@ -9969,13 +9924,13 @@
         <v>44</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>478</v>
+        <v>44</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>479</v>
+        <v>44</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>44</v>
@@ -9993,7 +9948,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10008,16 +9963,16 @@
         <v>64</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>44</v>
+        <v>501</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>44</v>
@@ -10025,7 +9980,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10048,15 +10003,17 @@
         <v>53</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>44</v>
@@ -10105,7 +10062,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10123,13 +10080,13 @@
         <v>44</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>44</v>
+        <v>508</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>44</v>
@@ -10137,11 +10094,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>44</v>
+        <v>511</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10160,18 +10117,20 @@
         <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>44</v>
       </c>
@@ -10195,13 +10154,13 @@
         <v>44</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>129</v>
+        <v>413</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>44</v>
@@ -10219,7 +10178,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10234,24 +10193,24 @@
         <v>64</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>491</v>
+        <v>44</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>494</v>
+        <v>44</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>44</v>
+        <v>519</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10265,26 +10224,24 @@
         <v>43</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -10333,7 +10290,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10348,24 +10305,24 @@
         <v>64</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>501</v>
+        <v>373</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>494</v>
+        <v>44</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>44</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10376,25 +10333,25 @@
         <v>42</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>504</v>
+        <v>54</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10445,13 +10402,13 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>44</v>
@@ -10460,13 +10417,13 @@
         <v>64</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>507</v>
+        <v>44</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>508</v>
+        <v>373</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>44</v>
@@ -10475,13 +10432,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>511</v>
+        <v>44</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10491,7 +10448,7 @@
         <v>43</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>44</v>
@@ -10500,16 +10457,16 @@
         <v>44</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10559,7 +10516,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10574,591 +10531,23 @@
         <v>64</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>517</v>
+        <v>95</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN81" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN81">
+  <autoFilter ref="A1:AN76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11168,7 +10557,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-other.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="573">
   <si>
     <t>Property</t>
   </si>
@@ -1943,7 +1943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2031,77 +2031,85 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>35</v>
       </c>
     </row>

--- a/StructureDefinition-be-referralprescription-nursing-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-other.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="575">
   <si>
     <t>Property</t>
   </si>
@@ -1366,16 +1366,19 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
     <t>When service shall occur - once this is past, this prescription is no longer valid and the status shall reflect this.</t>
   </si>
   <si>
     <t>The date/time at which the requested service should occur.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Request.occurrence[x]</t>
   </si>
   <si>
@@ -1389,6 +1392,9 @@
   </si>
   <si>
     <t>Procedure.procedureSchedule</t>
+  </si>
+  <si>
+    <t>occurrencePeriod</t>
   </si>
   <si>
     <t>ServiceRequest.asNeeded[x]</t>
@@ -2120,7 +2126,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2130,7 +2136,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.05859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -8905,7 +8911,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>434</v>
       </c>
@@ -8915,7 +8921,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>87</v>
@@ -8930,13 +8936,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8975,16 +8981,14 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>434</v>
@@ -9002,32 +9006,34 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>87</v>
@@ -9042,13 +9048,13 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>445</v>
+        <v>220</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9075,13 +9081,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9099,7 +9105,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9114,28 +9120,28 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9154,13 +9160,13 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9187,13 +9193,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9211,7 +9217,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9226,32 +9232,32 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>87</v>
@@ -9266,17 +9272,15 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9325,7 +9329,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9340,32 +9344,32 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>87</v>
@@ -9380,16 +9384,16 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>191</v>
+        <v>467</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9415,13 +9419,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9439,7 +9443,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9454,35 +9458,35 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -9494,16 +9498,16 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>487</v>
+        <v>191</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9529,13 +9533,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9553,13 +9557,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9568,28 +9572,28 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9599,7 +9603,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9608,15 +9612,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>191</v>
+        <v>489</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9641,13 +9647,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9665,7 +9671,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9680,16 +9686,16 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9697,7 +9703,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9720,13 +9726,13 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>501</v>
+        <v>191</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9753,13 +9759,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9777,7 +9783,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9798,18 +9804,18 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9823,7 +9829,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9832,17 +9838,15 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>191</v>
+        <v>503</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9867,13 +9871,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9891,7 +9895,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9906,24 +9910,24 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9937,7 +9941,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -9946,16 +9950,16 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>515</v>
+        <v>191</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9981,13 +9985,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10005,7 +10009,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10020,16 +10024,16 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10037,7 +10041,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10057,18 +10061,20 @@
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10117,7 +10123,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10132,28 +10138,28 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10163,7 +10169,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10172,17 +10178,15 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10231,7 +10235,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10246,13 +10250,13 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10261,13 +10265,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10277,25 +10281,25 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10345,7 +10349,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10360,13 +10364,13 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10375,13 +10379,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10391,7 +10395,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10400,20 +10404,18 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>191</v>
+        <v>541</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10437,13 +10439,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10461,7 +10463,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10479,25 +10481,25 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10513,19 +10515,23 @@
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>556</v>
+        <v>191</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10549,13 +10555,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10573,7 +10579,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10588,24 +10594,24 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>408</v>
+        <v>545</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10616,7 +10622,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>88</v>
@@ -10625,16 +10631,16 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>558</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10685,13 +10691,13 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
@@ -10700,24 +10706,24 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>408</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>79</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10728,29 +10734,27 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>567</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10799,13 +10803,13 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -10814,23 +10818,137 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="AK76" t="s" s="2">
+      <c r="M77" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AL77" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN76">
+  <autoFilter ref="A1:AN77">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10840,7 +10958,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-other.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="573">
   <si>
     <t>Property</t>
   </si>
@@ -1366,19 +1366,16 @@
 </t>
   </si>
   <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
     <t>When service shall occur - once this is past, this prescription is no longer valid and the status shall reflect this.</t>
   </si>
   <si>
     <t>The date/time at which the requested service should occur.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Request.occurrence[x]</t>
   </si>
   <si>
@@ -1392,9 +1389,6 @@
   </si>
   <si>
     <t>Procedure.procedureSchedule</t>
-  </si>
-  <si>
-    <t>occurrencePeriod</t>
   </si>
   <si>
     <t>ServiceRequest.asNeeded[x]</t>
@@ -2126,7 +2120,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2136,7 +2130,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.05859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -8911,7 +8905,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>434</v>
       </c>
@@ -8921,7 +8915,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>87</v>
@@ -8936,13 +8930,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>220</v>
+        <v>436</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8981,14 +8975,16 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AB60" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>434</v>
@@ -9006,34 +9002,32 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>87</v>
@@ -9048,13 +9042,13 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>220</v>
+        <v>445</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9081,13 +9075,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9105,7 +9099,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9120,28 +9114,28 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9160,13 +9154,13 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9193,13 +9187,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9217,7 +9211,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9232,32 +9226,32 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>87</v>
@@ -9272,15 +9266,17 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9329,7 +9325,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9344,32 +9340,32 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>87</v>
@@ -9384,16 +9380,16 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>467</v>
+        <v>191</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9419,13 +9415,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9443,7 +9439,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9458,35 +9454,35 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -9498,16 +9494,16 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>191</v>
+        <v>487</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9533,13 +9529,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9557,13 +9553,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9572,28 +9568,28 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>486</v>
-      </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9603,7 +9599,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9612,17 +9608,15 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>489</v>
+        <v>191</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9647,13 +9641,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9671,7 +9665,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9686,16 +9680,16 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9703,7 +9697,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9726,13 +9720,13 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>191</v>
+        <v>501</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9759,31 +9753,31 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9804,18 +9798,18 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9829,7 +9823,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9838,15 +9832,17 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>503</v>
+        <v>191</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9871,13 +9867,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9895,7 +9891,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9910,24 +9906,24 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9941,7 +9937,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -9950,16 +9946,16 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>191</v>
+        <v>515</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9985,13 +9981,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10009,7 +10005,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10024,16 +10020,16 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10041,7 +10037,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10061,20 +10057,18 @@
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10123,7 +10117,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10138,28 +10132,28 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>515</v>
+        <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10169,7 +10163,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10178,15 +10172,17 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>533</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10235,7 +10231,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10250,13 +10246,13 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10265,13 +10261,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10281,25 +10277,25 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J72" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10349,7 +10345,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10364,13 +10360,13 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10379,13 +10375,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10395,7 +10391,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10404,18 +10400,20 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>541</v>
+        <v>191</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10439,13 +10437,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>551</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10463,7 +10461,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10481,25 +10479,25 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10515,23 +10513,19 @@
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>191</v>
+        <v>556</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10555,13 +10549,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10579,7 +10573,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10594,24 +10588,24 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>545</v>
+        <v>408</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10622,7 +10616,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>88</v>
@@ -10631,16 +10625,16 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>558</v>
+        <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10691,13 +10685,13 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
@@ -10706,24 +10700,24 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>561</v>
+        <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>408</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>563</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10734,27 +10728,29 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>567</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10803,13 +10799,13 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -10818,137 +10814,23 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>79</v>
+        <v>571</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>408</v>
+        <v>130</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN77">
+  <autoFilter ref="A1:AN76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10958,7 +10840,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-other.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="599">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>
@@ -475,6 +475,86 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
+    <t>ServiceRequest.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/request-statusReason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying the reason for the current state of an event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-reason-referral-status</t>
+  </si>
+  <si>
     <t>informParty</t>
   </si>
   <si>
@@ -485,6 +565,35 @@
     <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
   </si>
   <si>
+    <t>coprescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber}
+</t>
+  </si>
+  <si>
+    <t>Other parties that have to take part in the prescription.</t>
+  </si>
+  <si>
+    <t>Other practitioners that must take part in this prescripiton</t>
+  </si>
+  <si>
+    <t>validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {resource-effectivePeriod}
+</t>
+  </si>
+  <si>
+    <t>Validity period of the prescription</t>
+  </si>
+  <si>
+    <t>The period during which the resource content was or is planned to be effective.</t>
+  </si>
+  <si>
+    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+  </si>
+  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -552,18 +661,6 @@
     <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.extension</t>
   </si>
   <si>
@@ -573,12 +670,6 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.use</t>
   </si>
   <si>
@@ -612,10 +703,6 @@
     <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -626,9 +713,6 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -870,7 +954,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1404,9 +1488,6 @@
     <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
   </si>
   <si>
@@ -1589,7 +1670,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1623,7 +1704,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -2120,7 +2201,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2130,7 +2211,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3097,7 +3178,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -3313,13 +3394,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>147</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3328,10 +3407,10 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3340,13 +3419,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3397,19 +3476,19 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3418,7 +3497,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3429,24 +3508,24 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>79</v>
@@ -3455,17 +3534,13 @@
         <v>132</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3501,19 +3576,19 @@
         <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3534,7 +3609,7 @@
         <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>79</v>
@@ -3545,7 +3620,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3553,31 +3628,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3585,7 +3660,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3615,59 +3690,59 @@
         <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB13" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>87</v>
@@ -3679,20 +3754,18 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3717,10 +3790,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3729,25 +3802,23 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
@@ -3756,32 +3827,34 @@
         <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>87</v>
@@ -3796,13 +3869,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3829,13 +3902,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3853,7 +3924,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3865,7 +3936,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
@@ -3874,7 +3945,7 @@
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
@@ -3883,13 +3954,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C16" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3899,7 +3972,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3908,17 +3981,15 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -3955,19 +4026,19 @@
         <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3976,7 +4047,7 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>138</v>
@@ -3988,7 +4059,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3997,11 +4068,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4010,32 +4083,28 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4059,13 +4128,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -4083,28 +4152,28 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4113,11 +4182,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4129,29 +4200,27 @@
         <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4175,13 +4244,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -4199,28 +4268,28 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4231,55 +4300,55 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>79</v>
@@ -4315,28 +4384,28 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4347,7 +4416,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4355,13 +4424,13 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4370,16 +4439,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4393,7 +4462,7 @@
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>79</v>
@@ -4417,25 +4486,23 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4444,26 +4511,28 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4484,15 +4553,17 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4541,13 +4612,13 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -4556,24 +4627,24 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4593,20 +4664,18 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4655,7 +4724,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4667,16 +4736,16 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4687,11 +4756,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4707,19 +4776,19 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4757,19 +4826,19 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4781,16 +4850,16 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4801,7 +4870,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4812,30 +4881,32 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4859,13 +4930,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4883,13 +4954,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4898,13 +4969,13 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4915,18 +4986,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4938,16 +5009,20 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4971,13 +5046,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4995,13 +5070,13 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -5010,13 +5085,13 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5027,18 +5102,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -5050,28 +5125,32 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5107,13 +5186,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -5122,13 +5201,13 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5137,23 +5216,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5162,20 +5241,18 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5187,7 +5264,7 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5223,7 +5300,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5238,13 +5315,13 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5253,9 +5330,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5263,32 +5340,30 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5313,13 +5388,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5337,10 +5412,10 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5352,24 +5427,24 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5377,7 +5452,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5386,22 +5461,22 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5427,13 +5502,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5451,10 +5526,10 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
@@ -5466,24 +5541,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5491,13 +5566,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5506,20 +5581,18 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5543,11 +5616,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5565,7 +5640,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5580,16 +5655,16 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5597,7 +5672,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5608,7 +5683,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5617,18 +5692,20 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5677,28 +5754,28 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5709,11 +5786,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5729,20 +5806,18 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5779,19 +5854,19 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5803,16 +5878,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5823,11 +5898,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5846,20 +5921,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5907,7 +5978,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5922,13 +5993,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5937,13 +6008,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5953,25 +6024,29 @@
         <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6019,7 +6094,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6031,16 +6106,16 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6049,41 +6124,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>176</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>154</v>
+        <v>301</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6109,63 +6184,63 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>179</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>174</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6173,7 +6248,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6182,32 +6257,30 @@
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>79</v>
@@ -6225,13 +6298,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6249,10 +6322,10 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -6264,24 +6337,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6289,13 +6362,13 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6304,18 +6377,20 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6339,13 +6414,11 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6363,13 +6436,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6381,13 +6454,13 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6395,7 +6468,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6415,27 +6488,25 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>79</v>
@@ -6477,7 +6548,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6489,16 +6560,16 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6509,18 +6580,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6529,21 +6600,21 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6579,40 +6650,40 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6623,7 +6694,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6634,7 +6705,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6646,19 +6717,19 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6707,13 +6778,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6725,10 +6796,10 @@
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6739,7 +6810,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6759,23 +6830,19 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>353</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6823,7 +6890,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>357</v>
+        <v>150</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6835,16 +6902,16 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>359</v>
+        <v>151</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6855,18 +6922,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6875,25 +6942,25 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>207</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P42" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6913,55 +6980,55 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>360</v>
+        <v>154</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>368</v>
+        <v>151</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6969,7 +7036,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6986,35 +7053,33 @@
         <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="Q43" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="R43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7055,7 +7120,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7070,13 +7135,13 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7085,23 +7150,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7110,16 +7175,16 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7145,11 +7210,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7167,7 +7234,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7182,24 +7249,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7219,25 +7286,27 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>172</v>
+        <v>357</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>79</v>
@@ -7279,7 +7348,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>173</v>
+        <v>360</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7291,16 +7360,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>174</v>
+        <v>362</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7311,18 +7380,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7331,21 +7400,21 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>176</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7381,40 +7450,40 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>179</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>174</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7425,7 +7494,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7436,7 +7505,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7448,19 +7517,19 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7509,13 +7578,13 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -7527,10 +7596,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7541,7 +7610,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7561,19 +7630,23 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7621,7 +7694,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>173</v>
+        <v>384</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7633,16 +7706,16 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>174</v>
+        <v>386</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7653,18 +7726,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7673,25 +7746,25 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>176</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7711,55 +7784,55 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>179</v>
+        <v>387</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>174</v>
+        <v>395</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7767,7 +7840,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7784,30 +7857,32 @@
         <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>101</v>
+        <v>371</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>313</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>314</v>
+        <v>399</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>315</v>
+        <v>400</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="Q50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7851,7 +7926,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7866,13 +7941,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7881,23 +7956,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7906,16 +7981,16 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>323</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>324</v>
+        <v>409</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7941,13 +8016,11 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7965,7 +8038,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>325</v>
+        <v>405</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7980,24 +8053,24 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>326</v>
+        <v>412</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>327</v>
+        <v>413</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8017,27 +8090,25 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8079,7 +8150,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8091,16 +8162,16 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8111,18 +8182,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8131,21 +8202,21 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8181,40 +8252,40 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8225,7 +8296,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8236,7 +8307,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -8248,19 +8319,19 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8309,13 +8380,13 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
@@ -8327,10 +8398,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8341,7 +8412,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8361,23 +8432,19 @@
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>353</v>
+        <v>148</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8425,7 +8492,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>357</v>
+        <v>150</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8437,16 +8504,16 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>359</v>
+        <v>151</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8455,41 +8522,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>402</v>
+        <v>186</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>207</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>405</v>
+        <v>189</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8515,29 +8582,31 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>401</v>
+        <v>154</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8546,30 +8615,30 @@
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8592,17 +8661,19 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>410</v>
+        <v>101</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>411</v>
+        <v>340</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="N57" t="s" s="2">
-        <v>413</v>
+        <v>343</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8651,7 +8722,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8669,10 +8740,10 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>408</v>
+        <v>346</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>414</v>
+        <v>347</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8681,9 +8752,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8691,13 +8762,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8706,15 +8777,17 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>416</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8763,10 +8836,10 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>87</v>
@@ -8778,28 +8851,28 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>420</v>
+        <v>353</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>421</v>
+        <v>354</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8818,22 +8891,24 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>426</v>
+        <v>107</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>427</v>
+        <v>356</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>357</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>79</v>
@@ -8875,7 +8950,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>424</v>
+        <v>360</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8890,28 +8965,28 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>430</v>
+        <v>361</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8921,7 +8996,7 @@
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8930,16 +9005,18 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>436</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>437</v>
+        <v>364</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>438</v>
+        <v>365</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8987,7 +9064,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>434</v>
+        <v>367</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9002,24 +9079,24 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>440</v>
+        <v>368</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>441</v>
+        <v>369</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9033,7 +9110,7 @@
         <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9042,16 +9119,20 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>445</v>
+        <v>371</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9075,13 +9156,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9099,7 +9180,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9117,25 +9198,25 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>451</v>
+        <v>378</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9145,7 +9226,7 @@
         <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9154,16 +9235,20 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>455</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>456</v>
+        <v>380</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9211,7 +9296,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9226,35 +9311,35 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>87</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>88</v>
@@ -9266,16 +9351,16 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>465</v>
+        <v>162</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9301,13 +9386,11 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9325,43 +9408,43 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>471</v>
+        <v>413</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>473</v>
+        <v>415</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9371,7 +9454,7 @@
         <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9380,18 +9463,18 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>191</v>
+        <v>437</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9415,13 +9498,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9439,7 +9522,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9454,16 +9537,16 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9471,18 +9554,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -9494,17 +9577,15 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9553,13 +9634,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9568,35 +9649,35 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9608,13 +9689,13 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>191</v>
+        <v>453</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9641,13 +9722,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9665,13 +9746,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -9680,38 +9761,38 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9720,13 +9801,13 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>502</v>
+        <v>465</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9777,13 +9858,13 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -9792,24 +9873,24 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9820,7 +9901,7 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>88</v>
@@ -9832,17 +9913,15 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>191</v>
+        <v>472</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9867,13 +9946,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>448</v>
+        <v>165</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9891,13 +9970,13 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
@@ -9906,38 +9985,38 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -9946,17 +10025,15 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10005,13 +10082,13 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
@@ -10020,55 +10097,57 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>521</v>
+        <v>486</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10117,13 +10196,13 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
@@ -10132,35 +10211,35 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>526</v>
+        <v>495</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>88</v>
@@ -10169,19 +10248,19 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>531</v>
+        <v>162</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10207,13 +10286,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10231,13 +10310,13 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
@@ -10246,28 +10325,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10277,7 +10356,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10286,16 +10365,16 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10345,7 +10424,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10360,28 +10439,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10391,7 +10470,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10400,20 +10479,16 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10437,13 +10512,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>448</v>
+        <v>165</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10461,7 +10536,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10479,21 +10554,21 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>553</v>
+        <v>525</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10507,22 +10582,22 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J74" t="s" s="2">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10573,7 +10648,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10588,24 +10663,24 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>561</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10616,7 +10691,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>88</v>
@@ -10628,15 +10703,17 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>563</v>
+        <v>531</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10661,13 +10738,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10685,13 +10762,13 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
@@ -10700,16 +10777,16 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>408</v>
+        <v>537</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10717,7 +10794,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10737,19 +10814,19 @@
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>567</v>
+        <v>541</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10799,7 +10876,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10814,23 +10891,817 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="AK76" t="s" s="2">
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AL83" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN76">
+  <autoFilter ref="A1:AN83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10840,7 +11711,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-other.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="620">
   <si>
     <t>Property</t>
   </si>
@@ -610,7 +610,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -654,6 +654,13 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2255,7 +2262,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN88"/>
+  <dimension ref="A1:AN89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4920,45 +4927,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5006,7 +5011,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5015,7 +5020,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5027,7 +5032,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5038,11 +5043,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5052,27 +5057,29 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5108,17 +5115,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5130,31 +5139,29 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5163,10 +5170,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5175,16 +5182,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5222,19 +5229,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5249,26 +5254,28 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5286,18 +5293,20 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5346,50 +5355,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5401,17 +5410,15 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5448,31 +5455,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5492,43 +5499,41 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5552,52 +5557,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5608,7 +5613,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5625,25 +5630,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5668,13 +5673,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5692,7 +5697,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5710,10 +5715,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5724,7 +5729,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5732,7 +5737,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5747,32 +5752,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5784,13 +5789,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5808,7 +5813,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5826,10 +5831,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5840,7 +5845,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5863,30 +5868,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5922,7 +5929,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5940,10 +5947,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5954,7 +5961,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5962,7 +5969,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5977,15 +5984,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5998,7 +6007,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6034,7 +6043,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6052,10 +6061,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6066,7 +6075,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6089,17 +6098,15 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6148,7 +6155,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6166,10 +6173,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6180,7 +6187,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6191,7 +6198,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6203,16 +6210,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6262,13 +6269,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6277,13 +6284,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>146</v>
+        <v>280</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6294,7 +6301,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6317,16 +6324,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>283</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6376,7 +6383,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6391,13 +6398,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6406,13 +6413,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6422,7 +6429,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6431,15 +6438,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6488,7 +6497,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6503,13 +6512,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6518,13 +6527,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6534,7 +6543,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6543,13 +6552,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6600,7 +6609,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6615,13 +6624,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6630,23 +6639,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6655,20 +6664,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6716,13 +6721,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6731,13 +6736,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6748,15 +6753,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6765,24 +6770,26 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6806,13 +6813,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6830,10 +6837,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6845,24 +6852,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6888,13 +6895,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6920,13 +6927,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6944,7 +6951,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6959,24 +6966,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6993,26 +7000,24 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7036,11 +7041,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7058,13 +7065,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7073,24 +7080,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7098,31 +7105,35 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7146,13 +7157,11 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7170,31 +7179,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>151</v>
+        <v>339</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>152</v>
+        <v>346</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7202,18 +7211,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7225,17 +7234,15 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7272,31 +7279,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7316,11 +7323,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7336,23 +7343,21 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>348</v>
+        <v>133</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>228</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7388,19 +7393,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>155</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7412,16 +7417,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7432,7 +7437,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7443,7 +7448,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7452,19 +7457,23 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>350</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7512,28 +7521,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>151</v>
+        <v>355</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>357</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7544,18 +7553,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7567,17 +7576,15 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7614,31 +7621,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7658,18 +7665,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7678,29 +7685,27 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>228</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7730,40 +7735,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>155</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>366</v>
+        <v>152</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7774,7 +7779,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7797,24 +7802,26 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7856,7 +7863,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7874,10 +7881,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7888,7 +7895,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7911,24 +7918,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7970,7 +7977,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7988,10 +7995,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8002,7 +8009,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8025,24 +8032,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8084,7 +8091,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8102,10 +8109,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8116,7 +8123,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8139,19 +8146,17 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8200,7 +8205,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8218,10 +8223,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8232,7 +8237,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8255,19 +8260,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>392</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8316,7 +8321,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8334,10 +8339,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8348,7 +8353,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8371,22 +8376,24 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8406,13 +8413,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8430,7 +8437,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8445,16 +8452,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8462,7 +8469,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8479,31 +8486,27 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>390</v>
+        <v>107</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8524,13 +8527,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8548,7 +8551,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8563,62 +8566,66 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>392</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8638,11 +8645,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8660,7 +8669,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8675,55 +8684,57 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>149</v>
+        <v>428</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8748,13 +8759,11 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8772,7 +8781,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>151</v>
+        <v>426</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8784,38 +8793,38 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>152</v>
+        <v>434</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8827,17 +8836,15 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8874,31 +8881,31 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -8918,11 +8925,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8938,23 +8945,21 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>348</v>
+        <v>133</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>349</v>
+        <v>228</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8990,19 +8995,19 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>353</v>
+        <v>155</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9014,16 +9019,16 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9034,7 +9039,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9045,7 +9050,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9054,19 +9059,23 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>350</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9114,28 +9123,28 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>151</v>
+        <v>355</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>152</v>
+        <v>357</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9146,18 +9155,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9169,17 +9178,15 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9216,31 +9223,31 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9260,18 +9267,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9280,23 +9287,21 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>359</v>
+        <v>228</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9332,40 +9337,40 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>364</v>
+        <v>155</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>366</v>
+        <v>152</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9376,7 +9381,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9399,18 +9404,20 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9458,7 +9465,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9476,10 +9483,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9490,7 +9497,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9513,24 +9520,24 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9572,7 +9579,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9590,10 +9597,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9627,24 +9634,24 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9686,7 +9693,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9704,10 +9711,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9718,7 +9725,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9741,19 +9748,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9802,7 +9807,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9820,10 +9825,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9834,7 +9839,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9857,19 +9862,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>392</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9918,7 +9923,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9936,10 +9941,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9948,23 +9953,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9973,18 +9978,20 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10008,11 +10015,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X68" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y68" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10030,16 +10039,16 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10048,35 +10057,35 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10085,18 +10094,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>456</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10120,13 +10129,11 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10144,16 +10151,16 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10162,21 +10169,21 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10184,13 +10191,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10199,16 +10206,18 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10256,10 +10265,10 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>87</v>
@@ -10271,38 +10280,38 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10311,13 +10320,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10368,10 +10377,10 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>87</v>
@@ -10383,28 +10392,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10414,7 +10423,7 @@
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10423,13 +10432,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10480,7 +10489,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10495,28 +10504,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10535,13 +10544,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10568,13 +10577,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10592,7 +10601,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10607,32 +10616,32 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
@@ -10647,13 +10656,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10680,13 +10689,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10704,7 +10713,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10719,28 +10728,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10759,17 +10768,15 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10818,7 +10825,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10833,35 +10840,35 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10873,16 +10880,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>163</v>
+        <v>512</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10908,13 +10915,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10932,7 +10939,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10947,28 +10954,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10987,16 +10994,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>532</v>
+        <v>163</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11022,13 +11029,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11046,13 +11053,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11061,38 +11068,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>533</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11101,15 +11108,17 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>163</v>
+        <v>534</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>536</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>537</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11134,13 +11143,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>542</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11158,7 +11167,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11173,16 +11182,16 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11190,7 +11199,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11213,13 +11222,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>546</v>
+        <v>163</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11246,13 +11255,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11270,7 +11279,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11291,18 +11300,18 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11310,13 +11319,13 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11325,17 +11334,15 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>163</v>
+        <v>548</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11360,13 +11367,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11384,7 +11391,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11399,24 +11406,24 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11424,13 +11431,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11439,16 +11446,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>560</v>
+        <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11474,13 +11481,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11498,7 +11505,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11513,16 +11520,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11530,7 +11537,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11550,18 +11557,20 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11610,7 +11619,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11625,28 +11634,28 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>575</v>
+        <v>79</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11656,7 +11665,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11665,17 +11674,15 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11724,7 +11731,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11739,13 +11746,13 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11754,13 +11761,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>79</v>
+        <v>577</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11770,25 +11777,25 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11838,7 +11845,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11853,13 +11860,13 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>79</v>
+        <v>582</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11868,13 +11875,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>591</v>
+        <v>79</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11884,7 +11891,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11893,20 +11900,18 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>163</v>
+        <v>586</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11930,13 +11935,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>596</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>597</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11954,7 +11959,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11972,25 +11977,25 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>79</v>
+        <v>593</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12006,19 +12011,23 @@
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>601</v>
+        <v>163</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12042,13 +12051,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>79</v>
+        <v>599</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12066,7 +12075,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12081,24 +12090,24 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>604</v>
+        <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>454</v>
+        <v>590</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12109,7 +12118,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>88</v>
@@ -12118,16 +12127,16 @@
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>603</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12178,13 +12187,13 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
@@ -12193,24 +12202,24 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>79</v>
+        <v>606</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>79</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12221,29 +12230,27 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>612</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>615</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12292,13 +12299,13 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
@@ -12307,23 +12314,137 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="AK88" t="s" s="2">
+      <c r="M89" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL88" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AL89" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN88">
+  <autoFilter ref="A1:AN89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12333,7 +12454,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-other.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="618">
   <si>
     <t>Property</t>
   </si>
@@ -610,7 +610,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
 </t>
   </si>
   <si>
@@ -654,13 +654,6 @@
   </si>
   <si>
     <t>BeTaskReference</t>
-  </si>
-  <si>
-    <t>pps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
-</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2262,7 +2255,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN89"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4927,43 +4920,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B24" t="s" s="2">
         <v>204</v>
       </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5011,7 +5006,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5020,7 +5015,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5032,7 +5027,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5043,11 +5038,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5057,29 +5052,27 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5115,19 +5108,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5139,29 +5130,31 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5170,10 +5163,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5182,16 +5175,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5229,17 +5222,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5254,28 +5249,26 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B27" t="s" s="2">
         <v>224</v>
       </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5293,20 +5286,18 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5355,50 +5346,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5410,15 +5401,17 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5455,31 +5448,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5499,41 +5492,43 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5557,52 +5552,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5613,7 +5608,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5630,25 +5625,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5673,13 +5668,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5697,7 +5692,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5715,10 +5710,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5729,7 +5724,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5737,7 +5732,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5752,32 +5747,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5789,13 +5784,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5813,7 +5808,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5831,10 +5826,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5845,7 +5840,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5868,32 +5863,30 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5929,7 +5922,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5947,10 +5940,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5961,7 +5954,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5969,7 +5962,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5984,17 +5977,15 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6007,7 +5998,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6043,7 +6034,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6061,10 +6052,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6075,7 +6066,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6098,15 +6089,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6155,7 +6148,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6173,10 +6166,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6187,7 +6180,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6198,7 +6191,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6210,16 +6203,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6269,13 +6262,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6284,13 +6277,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6301,7 +6294,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6324,16 +6317,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6383,7 +6376,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6398,13 +6391,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6413,13 +6406,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6429,7 +6422,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6438,17 +6431,15 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6497,7 +6488,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6512,13 +6503,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6527,13 +6518,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6543,7 +6534,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6552,13 +6543,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6609,7 +6600,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6624,13 +6615,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6639,23 +6630,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6664,16 +6655,20 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6721,13 +6716,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6736,13 +6731,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6753,15 +6748,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6770,26 +6765,24 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6813,13 +6806,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6837,10 +6830,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6852,24 +6845,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6895,13 +6888,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6927,13 +6920,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6951,7 +6944,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6966,24 +6959,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7000,24 +6993,26 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7041,13 +7036,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7065,13 +7058,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7080,24 +7073,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7105,35 +7098,31 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7157,11 +7146,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7179,31 +7170,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>339</v>
+        <v>151</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>346</v>
+        <v>152</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7211,18 +7202,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7234,15 +7225,17 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7279,31 +7272,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7323,11 +7316,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7343,21 +7336,23 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7393,19 +7388,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7417,16 +7412,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>152</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7437,7 +7432,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7448,7 +7443,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7457,23 +7452,19 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>351</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7521,28 +7512,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>355</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>357</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7553,18 +7544,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7576,15 +7567,17 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7621,31 +7614,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7665,18 +7658,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7685,27 +7678,29 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>228</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7735,40 +7730,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>155</v>
+        <v>364</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>152</v>
+        <v>366</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7779,7 +7774,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7802,26 +7797,24 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7863,7 +7856,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7881,10 +7874,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7895,7 +7888,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7918,24 +7911,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7977,7 +7970,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7995,10 +7988,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8009,7 +8002,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8032,24 +8025,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8091,7 +8084,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8109,10 +8102,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8123,7 +8116,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8146,17 +8139,19 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N52" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8205,7 +8200,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8223,10 +8218,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8237,7 +8232,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8260,19 +8255,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>392</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8321,7 +8316,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8339,10 +8334,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8353,7 +8348,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8376,24 +8371,22 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8413,13 +8406,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8437,7 +8430,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8452,16 +8445,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8469,7 +8462,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8486,27 +8479,31 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8527,13 +8524,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8551,7 +8548,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8566,66 +8563,62 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>392</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8645,13 +8638,11 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8669,7 +8660,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8684,57 +8675,55 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>428</v>
+        <v>149</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8759,11 +8748,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8781,7 +8772,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>426</v>
+        <v>151</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8793,38 +8784,38 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>434</v>
+        <v>152</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8836,15 +8827,17 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8881,31 +8874,31 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -8925,11 +8918,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8945,21 +8938,23 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8995,19 +8990,19 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9019,16 +9014,16 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>152</v>
+        <v>355</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9039,7 +9034,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9050,7 +9045,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9059,23 +9054,19 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>351</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9123,28 +9114,28 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>355</v>
+        <v>151</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>357</v>
+        <v>152</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9155,18 +9146,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9178,15 +9169,17 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9223,31 +9216,31 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9267,18 +9260,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9287,21 +9280,23 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>228</v>
+        <v>359</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9337,40 +9332,40 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>155</v>
+        <v>364</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>152</v>
+        <v>366</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9381,7 +9376,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9404,20 +9399,18 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9465,7 +9458,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9483,10 +9476,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9497,7 +9490,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9520,24 +9513,24 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9579,7 +9572,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9597,10 +9590,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9634,24 +9627,24 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9693,7 +9686,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9711,10 +9704,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9725,7 +9718,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9748,17 +9741,19 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N66" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9807,7 +9802,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9825,10 +9820,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9839,7 +9834,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9862,19 +9857,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>392</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9923,7 +9918,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9941,10 +9936,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9953,23 +9948,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9978,20 +9973,18 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10015,13 +10008,11 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10039,16 +10030,16 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10057,35 +10048,35 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10094,18 +10085,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>163</v>
+        <v>456</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10129,11 +10120,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X69" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y69" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10151,16 +10144,16 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10169,21 +10162,21 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10191,13 +10184,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10206,18 +10199,16 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>461</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10265,10 +10256,10 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>87</v>
@@ -10280,38 +10271,38 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10320,13 +10311,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10377,10 +10368,10 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>87</v>
@@ -10392,28 +10383,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10423,7 +10414,7 @@
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10432,13 +10423,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10489,7 +10480,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10504,28 +10495,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10544,13 +10535,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10577,13 +10568,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10601,7 +10592,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10616,32 +10607,32 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>490</v>
+        <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
@@ -10656,13 +10647,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10689,13 +10680,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10713,7 +10704,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10728,28 +10719,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>503</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10768,15 +10759,17 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10825,7 +10818,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10840,35 +10833,35 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10880,16 +10873,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>512</v>
+        <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10915,13 +10908,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10939,7 +10932,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10954,28 +10947,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10994,16 +10987,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>163</v>
+        <v>532</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11029,13 +11022,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11053,13 +11046,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11068,38 +11061,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="AL77" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>531</v>
-      </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>533</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11108,17 +11101,15 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>534</v>
+        <v>163</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11143,13 +11134,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11167,7 +11158,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11182,16 +11173,16 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11199,7 +11190,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11222,13 +11213,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>163</v>
+        <v>546</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11255,31 +11246,31 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11300,18 +11291,18 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11319,13 +11310,13 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11334,15 +11325,17 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>548</v>
+        <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11367,13 +11360,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11391,7 +11384,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11406,24 +11399,24 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11431,13 +11424,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11446,16 +11439,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>163</v>
+        <v>560</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11481,13 +11474,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11505,7 +11498,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11520,16 +11513,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11537,7 +11530,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11557,20 +11550,18 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11619,7 +11610,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11634,28 +11625,28 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>79</v>
+        <v>575</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11665,7 +11656,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11674,15 +11665,17 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11731,7 +11724,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11746,13 +11739,13 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11761,13 +11754,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>577</v>
+        <v>79</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11777,25 +11770,25 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J84" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11845,7 +11838,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11860,13 +11853,13 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>582</v>
+        <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11875,13 +11868,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>79</v>
+        <v>591</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11891,7 +11884,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11900,18 +11893,20 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>586</v>
+        <v>163</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11935,13 +11930,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>79</v>
+        <v>596</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>79</v>
+        <v>597</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11959,7 +11954,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11977,25 +11972,25 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>79</v>
+        <v>599</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>593</v>
+        <v>79</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12011,23 +12006,19 @@
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>163</v>
+        <v>601</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>597</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12051,13 +12042,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12075,7 +12066,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12090,24 +12081,24 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>590</v>
+        <v>454</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12118,7 +12109,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>88</v>
@@ -12127,16 +12118,16 @@
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>603</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12187,13 +12178,13 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
@@ -12202,24 +12193,24 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>606</v>
+        <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>608</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12230,27 +12221,29 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>89</v>
+        <v>612</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12299,13 +12292,13 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
@@ -12314,137 +12307,23 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>79</v>
+        <v>616</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>456</v>
+        <v>130</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN89" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN89">
+  <autoFilter ref="A1:AN88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12454,7 +12333,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI88">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-other.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="626">
   <si>
     <t>Property</t>
   </si>
@@ -1880,6 +1880,31 @@
   </si>
   <si>
     <t>Procedure.targetBodySite</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.extension</t>
+  </si>
+  <si>
+    <t>bodyLaterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core-clinical/StructureDefinition/be-ext-laterality}
+</t>
+  </si>
+  <si>
+    <t>BeExtLaterality</t>
+  </si>
+  <si>
+    <t>An explicit statement of laterality of a lesion, or a treatment, etc.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.text</t>
   </si>
   <si>
     <t>ServiceRequest.note</t>
@@ -2255,7 +2280,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN88"/>
+  <dimension ref="A1:AN93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11984,7 +12009,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
         <v>600</v>
       </c>
@@ -11997,10 +12022,10 @@
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12009,13 +12034,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>601</v>
+        <v>89</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>602</v>
+        <v>149</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>603</v>
+        <v>150</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12066,70 +12091,72 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>600</v>
+        <v>151</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>604</v>
+        <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>605</v>
+        <v>152</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>606</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>608</v>
+        <v>226</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12166,40 +12193,40 @@
         <v>79</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>607</v>
+        <v>155</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>610</v>
+        <v>152</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12210,9 +12237,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="B88" s="2"/>
+        <v>601</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>602</v>
+      </c>
       <c r="C88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12221,7 +12250,7 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12233,17 +12262,15 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>615</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12292,7 +12319,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>611</v>
+        <v>155</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12304,26 +12331,596 @@
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ88" t="s" s="2">
+      <c r="AJ89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="AK88" t="s" s="2">
+      <c r="L92" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AK93" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL88" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AL93" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN88">
+  <autoFilter ref="A1:AN93">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12333,7 +12930,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI92">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-other.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="627">
   <si>
     <t>Property</t>
   </si>
@@ -558,14 +558,17 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
+    <t>feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
 </t>
   </si>
   <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+    <t>Give feedback to the prescriber</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>coprescriber</t>
@@ -4048,7 +4051,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -4066,7 +4069,7 @@
         <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4138,7 +4141,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -4152,7 +4155,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4174,13 +4177,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4266,7 +4269,7 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
@@ -4288,13 +4291,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4380,7 +4383,7 @@
         <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
@@ -4402,13 +4405,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4494,7 +4497,7 @@
         <v>131</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4516,13 +4519,13 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4608,7 +4611,7 @@
         <v>131</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
@@ -4630,13 +4633,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4722,7 +4725,7 @@
         <v>131</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
@@ -4744,13 +4747,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4836,7 +4839,7 @@
         <v>131</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
@@ -4858,13 +4861,13 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4947,11 +4950,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4973,16 +4976,16 @@
         <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5031,7 +5034,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5063,7 +5066,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5086,16 +5089,16 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5133,7 +5136,7 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
@@ -5143,7 +5146,7 @@
         <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5158,27 +5161,27 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5200,16 +5203,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5259,7 +5262,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5274,24 +5277,24 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5403,11 +5406,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5429,13 +5432,13 @@
         <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5517,7 +5520,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5543,16 +5546,16 @@
         <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5577,13 +5580,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5601,7 +5604,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5622,7 +5625,7 @@
         <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5633,7 +5636,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5659,16 +5662,16 @@
         <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5696,10 +5699,10 @@
         <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5717,7 +5720,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5735,10 +5738,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5749,7 +5752,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5775,29 +5778,29 @@
         <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5833,7 +5836,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5851,10 +5854,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5865,7 +5868,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5891,13 +5894,13 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5911,7 +5914,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5947,7 +5950,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5965,10 +5968,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5979,7 +5982,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6002,13 +6005,13 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6059,7 +6062,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6077,10 +6080,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6091,7 +6094,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6114,16 +6117,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6173,7 +6176,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6191,10 +6194,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6205,7 +6208,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6228,16 +6231,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6287,7 +6290,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6302,13 +6305,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6319,7 +6322,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6345,13 +6348,13 @@
         <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6401,7 +6404,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6416,13 +6419,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6433,11 +6436,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6456,13 +6459,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6513,7 +6516,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6528,13 +6531,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6545,11 +6548,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6568,13 +6571,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6625,7 +6628,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6640,13 +6643,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6657,11 +6660,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6680,19 +6683,19 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6741,7 +6744,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6756,13 +6759,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6773,7 +6776,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6799,13 +6802,13 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6831,13 +6834,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6855,7 +6858,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>87</v>
@@ -6870,24 +6873,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6913,13 +6916,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6945,13 +6948,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6969,7 +6972,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6984,16 +6987,16 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7001,7 +7004,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7027,16 +7030,16 @@
         <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7065,7 +7068,7 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7083,7 +7086,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7101,13 +7104,13 @@
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7115,7 +7118,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7227,11 +7230,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7253,13 +7256,13 @@
         <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7341,7 +7344,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7364,19 +7367,19 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7425,7 +7428,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7443,10 +7446,10 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7457,7 +7460,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7569,11 +7572,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7595,13 +7598,13 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7683,7 +7686,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7709,23 +7712,23 @@
         <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7767,7 +7770,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7785,10 +7788,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7799,7 +7802,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7825,13 +7828,13 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7881,7 +7884,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7899,10 +7902,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7913,7 +7916,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7939,21 +7942,21 @@
         <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7995,7 +7998,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8013,10 +8016,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8027,7 +8030,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8053,14 +8056,14 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8109,7 +8112,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8127,10 +8130,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8141,7 +8144,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8164,19 +8167,19 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8225,7 +8228,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8243,10 +8246,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8257,7 +8260,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8283,16 +8286,16 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8341,7 +8344,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8359,10 +8362,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8399,10 +8402,10 @@
         <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8410,7 +8413,7 @@
         <v>79</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
@@ -8431,13 +8434,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8455,7 +8458,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8470,16 +8473,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8487,7 +8490,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8510,70 +8513,70 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Q55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="Q55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8588,13 +8591,13 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8605,11 +8608,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8631,13 +8634,13 @@
         <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8663,11 +8666,11 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8685,7 +8688,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8700,24 +8703,24 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8829,11 +8832,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8855,13 +8858,13 @@
         <v>133</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8943,7 +8946,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8966,19 +8969,19 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9027,7 +9030,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9045,10 +9048,10 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9059,7 +9062,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9171,11 +9174,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9197,13 +9200,13 @@
         <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9285,7 +9288,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9311,16 +9314,16 @@
         <v>101</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9369,7 +9372,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9387,10 +9390,10 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9401,7 +9404,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9427,13 +9430,13 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9483,7 +9486,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9501,10 +9504,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9515,7 +9518,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9541,21 +9544,21 @@
         <v>107</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9597,7 +9600,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9615,10 +9618,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9629,7 +9632,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9655,14 +9658,14 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9711,7 +9714,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9729,10 +9732,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9743,7 +9746,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9766,19 +9769,19 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9827,7 +9830,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9845,10 +9848,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9859,7 +9862,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9885,16 +9888,16 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9943,7 +9946,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9961,10 +9964,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9975,11 +9978,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -10001,13 +10004,13 @@
         <v>163</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10037,7 +10040,7 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10055,7 +10058,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10064,7 +10067,7 @@
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10073,21 +10076,21 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10110,17 +10113,17 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10169,7 +10172,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10187,10 +10190,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10201,7 +10204,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10224,13 +10227,13 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10281,7 +10284,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>87</v>
@@ -10296,28 +10299,28 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10336,13 +10339,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10393,7 +10396,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10408,28 +10411,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10448,13 +10451,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10505,7 +10508,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10520,24 +10523,24 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10560,13 +10563,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10596,10 +10599,10 @@
         <v>166</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10617,7 +10620,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10638,22 +10641,22 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10672,13 +10675,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10729,7 +10732,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10744,28 +10747,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10784,16 +10787,16 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10843,7 +10846,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10858,28 +10861,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10901,13 +10904,13 @@
         <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10936,10 +10939,10 @@
         <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10957,7 +10960,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10972,16 +10975,16 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -10989,11 +10992,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11012,16 +11015,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11071,7 +11074,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11086,16 +11089,16 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11103,7 +11106,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11129,10 +11132,10 @@
         <v>163</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11162,10 +11165,10 @@
         <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11183,7 +11186,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11204,10 +11207,10 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11215,7 +11218,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11238,13 +11241,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11295,7 +11298,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11316,10 +11319,10 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11327,7 +11330,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11353,13 +11356,13 @@
         <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11388,10 +11391,10 @@
         <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11409,7 +11412,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11424,16 +11427,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11441,7 +11444,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11464,16 +11467,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11523,7 +11526,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11538,16 +11541,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11555,7 +11558,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11578,13 +11581,13 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11635,7 +11638,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11650,13 +11653,13 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11667,11 +11670,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11690,16 +11693,16 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11749,7 +11752,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11764,13 +11767,13 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11781,7 +11784,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11804,16 +11807,16 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11863,7 +11866,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11881,10 +11884,10 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11895,11 +11898,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11921,16 +11924,16 @@
         <v>163</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -11958,10 +11961,10 @@
         <v>166</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11979,7 +11982,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11997,21 +12000,21 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12123,11 +12126,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12149,13 +12152,13 @@
         <v>133</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12237,10 +12240,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>79</v>
@@ -12262,13 +12265,13 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12351,7 +12354,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12374,19 +12377,19 @@
         <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12435,7 +12438,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12453,10 +12456,10 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12467,7 +12470,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12493,16 +12496,16 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12551,7 +12554,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12569,10 +12572,10 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12583,7 +12586,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12606,13 +12609,13 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12663,7 +12666,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12678,24 +12681,24 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12721,10 +12724,10 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12775,7 +12778,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12793,10 +12796,10 @@
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12807,7 +12810,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12830,16 +12833,16 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12889,7 +12892,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12904,13 +12907,13 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-be-referralprescription-nursing-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-other.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$94</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="629">
   <si>
     <t>Property</t>
   </si>
@@ -613,7 +613,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -657,6 +657,13 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2283,7 +2290,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN93"/>
+  <dimension ref="A1:AN94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4948,45 +4955,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5034,7 +5039,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5043,7 +5048,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5055,7 +5060,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5066,11 +5071,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5080,27 +5085,29 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5136,17 +5143,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5158,31 +5167,29 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5191,10 +5198,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5203,16 +5210,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5250,19 +5257,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5277,26 +5282,28 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5314,18 +5321,20 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5374,50 +5383,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5429,17 +5438,15 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5476,31 +5483,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5520,43 +5527,41 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5580,52 +5585,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5636,7 +5641,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5653,25 +5658,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5696,13 +5701,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5720,7 +5725,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5738,10 +5743,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5752,7 +5757,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5760,7 +5765,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5775,32 +5780,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5812,13 +5817,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5836,7 +5841,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5854,10 +5859,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5868,7 +5873,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5891,30 +5896,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5950,7 +5957,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5968,10 +5975,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5982,7 +5989,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5990,7 +5997,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -6005,15 +6012,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>267</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6026,7 +6035,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6062,7 +6071,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6080,10 +6089,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6094,7 +6103,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6117,17 +6126,15 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6176,7 +6183,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6194,10 +6201,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6208,7 +6215,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6219,7 +6226,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6231,16 +6238,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6290,13 +6297,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6305,13 +6312,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>146</v>
+        <v>281</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6322,7 +6329,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6345,16 +6352,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6404,7 +6411,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6419,13 +6426,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6434,13 +6441,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6450,7 +6457,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6459,15 +6466,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>295</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6516,7 +6525,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6531,13 +6540,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>299</v>
+        <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6546,13 +6555,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6562,7 +6571,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6571,13 +6580,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6628,7 +6637,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6643,13 +6652,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6658,23 +6667,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6683,20 +6692,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6744,13 +6749,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6759,13 +6764,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6776,15 +6781,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6793,24 +6798,26 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6834,13 +6841,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6858,10 +6865,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6873,24 +6880,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6916,13 +6923,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6948,13 +6955,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6972,7 +6979,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6987,24 +6994,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7021,26 +7028,24 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7064,11 +7069,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7086,13 +7093,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7101,24 +7108,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>344</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7126,31 +7133,35 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7174,13 +7185,11 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7198,31 +7207,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>151</v>
+        <v>340</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>152</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7230,18 +7239,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7253,17 +7262,15 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7300,31 +7307,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7344,11 +7351,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7364,23 +7371,21 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>349</v>
+        <v>133</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7416,19 +7421,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7440,16 +7445,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7460,7 +7465,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7471,7 +7476,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7480,19 +7485,23 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>351</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7540,28 +7549,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>151</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>358</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7572,18 +7581,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7595,17 +7604,15 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7642,31 +7649,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7686,18 +7693,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7706,29 +7713,27 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>361</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7758,40 +7763,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>365</v>
+        <v>155</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>367</v>
+        <v>152</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7802,7 +7807,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7825,24 +7830,26 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7884,7 +7891,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7902,10 +7909,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7916,7 +7923,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7939,24 +7946,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7998,7 +8005,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8016,10 +8023,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8030,7 +8037,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8053,24 +8060,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8112,7 +8119,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8130,10 +8137,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8144,7 +8151,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8167,19 +8174,17 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>391</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8228,7 +8233,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8246,10 +8251,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8260,7 +8265,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8283,19 +8288,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>393</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8344,7 +8349,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8362,10 +8367,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8376,7 +8381,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8399,22 +8404,24 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8434,13 +8441,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8458,7 +8465,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8473,16 +8480,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8490,7 +8497,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8507,31 +8514,27 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>391</v>
+        <v>107</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8552,13 +8555,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8576,7 +8579,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8591,62 +8594,66 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>393</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8666,11 +8673,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8688,7 +8697,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8703,55 +8712,57 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>149</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8776,13 +8787,11 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8800,7 +8809,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>151</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8812,38 +8821,38 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>152</v>
+        <v>435</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8855,17 +8864,15 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8902,31 +8909,31 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -8946,11 +8953,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8966,23 +8973,21 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>349</v>
+        <v>133</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>351</v>
+        <v>230</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9018,19 +9023,19 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9042,16 +9047,16 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9062,7 +9067,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9073,7 +9078,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9082,19 +9087,23 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>351</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9142,28 +9151,28 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>151</v>
+        <v>356</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>152</v>
+        <v>358</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9174,18 +9183,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9197,17 +9206,15 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9244,31 +9251,31 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9288,18 +9295,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9308,23 +9315,21 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>361</v>
+        <v>230</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9360,40 +9365,40 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>365</v>
+        <v>155</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>367</v>
+        <v>152</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9404,7 +9409,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9427,18 +9432,20 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9486,7 +9493,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9504,10 +9511,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9518,7 +9525,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9541,24 +9548,24 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9600,7 +9607,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9618,10 +9625,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9655,24 +9662,24 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9714,7 +9721,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9732,10 +9739,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9746,7 +9753,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9769,19 +9776,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>391</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9830,7 +9835,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9848,10 +9853,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9862,7 +9867,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9885,19 +9890,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>393</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9946,7 +9951,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9964,10 +9969,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9976,23 +9981,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10001,18 +10006,20 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10036,11 +10043,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X68" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y68" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10058,16 +10067,16 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10076,35 +10085,35 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10113,18 +10122,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>457</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10148,13 +10157,11 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10172,16 +10179,16 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10190,21 +10197,21 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10212,13 +10219,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10227,16 +10234,18 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10284,10 +10293,10 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>87</v>
@@ -10299,38 +10308,38 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10339,13 +10348,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10396,10 +10405,10 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>87</v>
@@ -10411,28 +10420,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10442,7 +10451,7 @@
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10451,13 +10460,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10508,7 +10517,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10523,28 +10532,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10563,13 +10572,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10596,13 +10605,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10620,7 +10629,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10635,32 +10644,32 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
@@ -10675,13 +10684,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10708,13 +10717,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10732,7 +10741,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10747,28 +10756,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10787,17 +10796,15 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10846,7 +10853,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10861,35 +10868,35 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10901,16 +10908,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>163</v>
+        <v>513</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10936,13 +10943,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10960,7 +10967,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10975,28 +10982,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11015,16 +11022,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>533</v>
+        <v>163</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11050,13 +11057,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11074,13 +11081,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11089,38 +11096,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11129,15 +11136,17 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>163</v>
+        <v>535</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11162,13 +11171,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11186,7 +11195,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11201,16 +11210,16 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11218,7 +11227,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11241,13 +11250,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>547</v>
+        <v>163</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11274,13 +11283,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11298,7 +11307,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11319,18 +11328,18 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11338,13 +11347,13 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11353,17 +11362,15 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>163</v>
+        <v>549</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11388,13 +11395,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11412,7 +11419,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11427,24 +11434,24 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11452,13 +11459,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11467,16 +11474,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>561</v>
+        <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11502,13 +11509,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>557</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11526,7 +11533,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11541,16 +11548,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11558,7 +11565,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11578,18 +11585,20 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11638,7 +11647,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11653,28 +11662,28 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>576</v>
+        <v>79</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11684,7 +11693,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11693,17 +11702,15 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11752,7 +11759,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11767,13 +11774,13 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11782,13 +11789,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11798,25 +11805,25 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11866,7 +11873,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11881,13 +11888,13 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>79</v>
+        <v>583</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11896,13 +11903,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>592</v>
+        <v>79</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11912,7 +11919,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11921,20 +11928,18 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>163</v>
+        <v>587</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11958,13 +11963,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>597</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11982,7 +11987,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12000,53 +12005,57 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>600</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>79</v>
+        <v>594</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>149</v>
+        <v>595</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>596</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>598</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12070,13 +12079,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>79</v>
+        <v>599</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>79</v>
+        <v>600</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12094,50 +12103,50 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>151</v>
+        <v>593</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>79</v>
+        <v>591</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>152</v>
+        <v>601</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>79</v>
+        <v>602</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>79</v>
@@ -12149,17 +12158,15 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12196,31 +12203,31 @@
         <v>79</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
@@ -12240,20 +12247,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>603</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12265,15 +12270,17 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>604</v>
+        <v>133</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>605</v>
+        <v>229</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12310,16 +12317,16 @@
         <v>79</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE88" t="s" s="2">
         <v>155</v>
@@ -12343,7 +12350,7 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12354,9 +12361,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="B89" s="2"/>
+        <v>604</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>605</v>
+      </c>
       <c r="C89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12365,7 +12374,7 @@
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>79</v>
@@ -12374,23 +12383,19 @@
         <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>349</v>
+        <v>606</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>350</v>
+        <v>607</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12438,7 +12443,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12450,16 +12455,16 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12470,7 +12475,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12481,7 +12486,7 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -12493,19 +12498,19 @@
         <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>89</v>
+        <v>351</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12554,13 +12559,13 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
@@ -12572,10 +12577,10 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12584,9 +12589,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12597,28 +12602,32 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J91" t="s" s="2">
-        <v>610</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>611</v>
+        <v>402</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12666,13 +12675,13 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>609</v>
+        <v>406</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
@@ -12681,24 +12690,24 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>613</v>
+        <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>614</v>
+        <v>408</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>615</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12709,7 +12718,7 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>88</v>
@@ -12718,16 +12727,16 @@
         <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>612</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12778,13 +12787,13 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -12793,24 +12802,24 @@
         <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>79</v>
+        <v>615</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>79</v>
+        <v>617</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12821,29 +12830,27 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>621</v>
+        <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>624</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -12892,13 +12899,13 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -12907,23 +12914,137 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="AK93" t="s" s="2">
+      <c r="M94" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AK94" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL93" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN93" t="s" s="2">
+      <c r="AL94" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN93">
+  <autoFilter ref="A1:AN94">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12933,7 +13054,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-other.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="631">
   <si>
     <t>Property</t>
   </si>
@@ -663,6 +663,13 @@
   </si>
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
+  </si>
+  <si>
+    <t>recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
 </t>
   </si>
   <si>
@@ -2290,7 +2297,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN94"/>
+  <dimension ref="A1:AN95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5069,45 +5076,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5155,7 +5160,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5164,7 +5169,7 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>139</v>
@@ -5176,7 +5181,7 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5187,11 +5192,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5201,27 +5206,29 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5257,17 +5264,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5279,31 +5288,29 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5312,10 +5319,10 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5324,16 +5331,16 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5371,19 +5378,17 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5398,26 +5403,28 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5435,18 +5442,20 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5495,50 +5504,50 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -5550,17 +5559,15 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5597,31 +5604,31 @@
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
@@ -5641,43 +5648,41 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5701,52 +5706,52 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5757,7 +5762,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5774,25 +5779,25 @@
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5817,13 +5822,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5841,7 +5846,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5859,10 +5864,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>249</v>
+        <v>130</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5873,7 +5878,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5881,7 +5886,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -5896,32 +5901,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5933,13 +5938,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5957,7 +5962,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5975,10 +5980,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5989,7 +5994,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6012,30 +6017,32 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6071,7 +6078,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6089,10 +6096,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6103,7 +6110,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6111,7 +6118,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -6126,15 +6133,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6147,7 +6156,7 @@
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6183,7 +6192,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6201,10 +6210,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6215,7 +6224,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6238,17 +6247,15 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6297,7 +6304,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6315,10 +6322,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6329,7 +6336,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6340,7 +6347,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -6352,16 +6359,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6411,13 +6418,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6426,13 +6433,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6443,7 +6450,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6466,16 +6473,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6525,7 +6532,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6540,13 +6547,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6555,13 +6562,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6571,7 +6578,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6580,15 +6587,17 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6637,7 +6646,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6652,13 +6661,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6667,13 +6676,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6683,7 +6692,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6692,13 +6701,13 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6749,7 +6758,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6764,13 +6773,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6779,23 +6788,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6804,20 +6813,16 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6865,13 +6870,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6880,13 +6885,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6897,15 +6902,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>87</v>
@@ -6914,24 +6919,26 @@
         <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6955,13 +6962,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6979,10 +6986,10 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>87</v>
@@ -6994,24 +7001,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7037,13 +7044,13 @@
         <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7069,13 +7076,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7093,7 +7100,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>87</v>
@@ -7108,24 +7115,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>130</v>
+        <v>329</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7142,26 +7149,24 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7185,11 +7190,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7207,13 +7214,13 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -7222,24 +7229,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>130</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7247,31 +7254,35 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7295,13 +7306,11 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7319,31 +7328,31 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>152</v>
+        <v>349</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7351,18 +7360,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7374,17 +7383,15 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7421,31 +7428,31 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
@@ -7465,11 +7472,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7485,23 +7492,21 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>352</v>
+        <v>231</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>353</v>
+        <v>232</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7537,19 +7542,19 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7561,16 +7566,16 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>358</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7581,7 +7586,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7592,7 +7597,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7601,19 +7606,23 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7661,28 +7670,28 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>152</v>
+        <v>360</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7693,18 +7702,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7716,17 +7725,15 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7763,31 +7770,31 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
@@ -7807,18 +7814,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7827,29 +7834,27 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>231</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>232</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7879,40 +7884,40 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>367</v>
+        <v>155</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>369</v>
+        <v>152</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7923,7 +7928,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7946,24 +7951,26 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -8005,7 +8012,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8023,10 +8030,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8037,7 +8044,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8060,24 +8067,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8119,7 +8126,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8137,10 +8144,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8151,7 +8158,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8174,24 +8181,24 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8233,7 +8240,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8251,10 +8258,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8265,7 +8272,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8288,19 +8295,17 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>393</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8349,7 +8354,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8367,10 +8372,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8381,7 +8386,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8404,19 +8409,19 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>395</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8465,7 +8470,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8483,10 +8488,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8497,7 +8502,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8520,22 +8525,24 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P55" t="s" s="2">
-        <v>412</v>
-      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8555,13 +8562,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8579,7 +8586,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8594,16 +8601,16 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8611,7 +8618,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8628,31 +8635,27 @@
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>393</v>
+        <v>107</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
@@ -8673,13 +8676,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8697,7 +8700,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8712,62 +8715,66 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>395</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8787,11 +8794,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8809,7 +8818,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8824,55 +8833,57 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>431</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8897,13 +8908,11 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8921,7 +8930,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>151</v>
+        <v>429</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8933,38 +8942,38 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>152</v>
+        <v>437</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8976,17 +8985,15 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9023,31 +9030,31 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
@@ -9067,11 +9074,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9087,23 +9094,21 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>231</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>232</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9139,19 +9144,19 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9163,16 +9168,16 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>358</v>
+        <v>152</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9183,7 +9188,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9194,7 +9199,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9203,19 +9208,23 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9263,28 +9272,28 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>152</v>
+        <v>360</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9295,18 +9304,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9318,17 +9327,15 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9365,31 +9372,31 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
@@ -9409,18 +9416,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9429,23 +9436,21 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>362</v>
+        <v>231</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>363</v>
+        <v>232</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9481,40 +9486,40 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>367</v>
+        <v>155</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>369</v>
+        <v>152</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9525,7 +9530,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9548,18 +9553,20 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9607,7 +9614,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9625,10 +9632,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9639,7 +9646,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9662,24 +9669,24 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9721,7 +9728,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9739,10 +9746,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9776,24 +9783,24 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>79</v>
@@ -9835,7 +9842,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9853,10 +9860,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9867,7 +9874,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9890,19 +9897,17 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>393</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9951,7 +9956,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9969,10 +9974,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9983,7 +9988,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10006,19 +10011,19 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>395</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10067,7 +10072,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10085,10 +10090,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10097,23 +10102,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10122,18 +10127,20 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10157,11 +10164,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X69" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y69" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10179,16 +10188,16 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10197,35 +10206,35 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10234,18 +10243,18 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>459</v>
+        <v>163</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10269,13 +10278,11 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10293,16 +10300,16 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>99</v>
@@ -10311,21 +10318,21 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10333,13 +10340,13 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10348,16 +10355,18 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10405,10 +10414,10 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>87</v>
@@ -10420,38 +10429,38 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10460,13 +10469,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10517,10 +10526,10 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>87</v>
@@ -10532,28 +10541,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10563,7 +10572,7 @@
         <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10572,13 +10581,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10629,7 +10638,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10644,28 +10653,28 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10684,13 +10693,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10717,13 +10726,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10741,7 +10750,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10756,32 +10765,32 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>502</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
@@ -10796,13 +10805,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10829,13 +10838,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10853,7 +10862,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10868,28 +10877,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10908,17 +10917,15 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10967,7 +10974,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10982,35 +10989,35 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>88</v>
@@ -11022,16 +11029,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>163</v>
+        <v>515</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11057,13 +11064,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11081,7 +11088,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11096,28 +11103,28 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11136,16 +11143,16 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>535</v>
+        <v>163</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11171,13 +11178,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11195,13 +11202,13 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
@@ -11210,38 +11217,38 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11250,15 +11257,17 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>163</v>
+        <v>537</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11283,13 +11292,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11307,7 +11316,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11322,16 +11331,16 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11339,7 +11348,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11362,13 +11371,13 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>549</v>
+        <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11395,13 +11404,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11419,7 +11428,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11440,18 +11449,18 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11459,13 +11468,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11474,17 +11483,15 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>163</v>
+        <v>551</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11509,13 +11516,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11533,7 +11540,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11548,24 +11555,24 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11573,13 +11580,13 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11588,16 +11595,16 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>563</v>
+        <v>163</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11623,13 +11630,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11647,7 +11654,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11662,16 +11669,16 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11679,7 +11686,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11699,18 +11706,20 @@
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11759,7 +11768,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11774,28 +11783,28 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>79</v>
+        <v>563</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>578</v>
+        <v>79</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11805,7 +11814,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11814,17 +11823,15 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>582</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11873,7 +11880,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11888,13 +11895,13 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11903,13 +11910,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11919,25 +11926,25 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11987,7 +11994,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12002,13 +12009,13 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>79</v>
+        <v>585</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12017,13 +12024,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>594</v>
+        <v>79</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12033,7 +12040,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12042,20 +12049,18 @@
         <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>163</v>
+        <v>589</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12079,13 +12084,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>600</v>
+        <v>79</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12103,7 +12108,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12121,53 +12126,57 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>602</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>79</v>
+        <v>596</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>149</v>
+        <v>597</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12191,13 +12200,13 @@
         <v>79</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>79</v>
+        <v>601</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>79</v>
+        <v>602</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12215,50 +12224,50 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>151</v>
+        <v>595</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>79</v>
+        <v>593</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>152</v>
+        <v>603</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12270,17 +12279,15 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12317,31 +12324,31 @@
         <v>79</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>79</v>
@@ -12361,20 +12368,18 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>605</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>79</v>
@@ -12386,15 +12391,17 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>606</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>607</v>
+        <v>231</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12431,16 +12438,16 @@
         <v>79</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE89" t="s" s="2">
         <v>155</v>
@@ -12464,7 +12471,7 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12475,9 +12482,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="B90" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="C90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12486,7 +12495,7 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -12495,23 +12504,19 @@
         <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>351</v>
+        <v>608</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>352</v>
+        <v>609</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12559,7 +12564,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12571,16 +12576,16 @@
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12591,7 +12596,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12602,7 +12607,7 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>79</v>
@@ -12614,19 +12619,19 @@
         <v>88</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12675,13 +12680,13 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
@@ -12693,10 +12698,10 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12705,9 +12710,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12718,28 +12723,32 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J92" t="s" s="2">
-        <v>612</v>
+        <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>613</v>
+        <v>404</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
       </c>
@@ -12787,13 +12796,13 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>611</v>
+        <v>408</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -12802,24 +12811,24 @@
         <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>615</v>
+        <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>616</v>
+        <v>410</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>617</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12830,7 +12839,7 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>88</v>
@@ -12839,16 +12848,16 @@
         <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>89</v>
+        <v>614</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12899,13 +12908,13 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -12914,24 +12923,24 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>79</v>
+        <v>617</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>79</v>
+        <v>619</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12942,29 +12951,27 @@
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>623</v>
+        <v>89</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>626</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13013,13 +13020,13 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -13028,23 +13035,137 @@
         <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="AK94" t="s" s="2">
+      <c r="M95" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AK95" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL94" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN94" t="s" s="2">
+      <c r="AL95" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN94">
+  <autoFilter ref="A1:AN95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13054,7 +13175,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI93">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-other.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$96</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="636">
   <si>
     <t>Property</t>
   </si>
@@ -623,6 +623,19 @@
     <t>Request must be performed before</t>
   </si>
   <si>
+    <t>latestDraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-draft-date}
+</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status befor this moment</t>
+  </si>
+  <si>
+    <t>Request must leave draft status before</t>
+  </si>
+  <si>
     <t>performer</t>
   </si>
   <si>
@@ -671,6 +684,9 @@
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
 </t>
+  </si>
+  <si>
+    <t>The person responsable for this information, not necessarily the person who recorded the information</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2297,7 +2313,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN95"/>
+  <dimension ref="A1:AN96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4632,7 +4648,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
@@ -4746,7 +4762,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>87</v>
@@ -4881,7 +4897,7 @@
         <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4967,7 +4983,7 @@
         <v>131</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>79</v>
@@ -4989,13 +5005,13 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5081,7 +5097,7 @@
         <v>131</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>79</v>
@@ -5103,13 +5119,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5190,45 +5206,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="C26" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5276,7 +5290,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5285,7 +5299,7 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>139</v>
@@ -5297,7 +5311,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5308,11 +5322,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5322,27 +5336,29 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5378,17 +5394,19 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AB27" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5400,31 +5418,29 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5433,10 +5449,10 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5445,16 +5461,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5492,19 +5508,17 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5519,26 +5533,28 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5556,18 +5572,20 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5616,50 +5634,50 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5671,17 +5689,15 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5718,31 +5734,31 @@
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
@@ -5762,43 +5778,41 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5822,52 +5836,52 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5878,7 +5892,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5895,25 +5909,25 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5938,13 +5952,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5962,7 +5976,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5980,10 +5994,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5994,7 +6008,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6002,7 +6016,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -6017,32 +6031,32 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6054,13 +6068,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6078,7 +6092,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6096,10 +6110,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6110,7 +6124,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6133,30 +6147,32 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6192,7 +6208,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6210,10 +6226,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6224,7 +6240,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6232,7 +6248,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
@@ -6247,15 +6263,17 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6268,7 +6286,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6304,7 +6322,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6322,10 +6340,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6336,7 +6354,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6359,17 +6377,15 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>281</v>
-      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6418,7 +6434,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6436,10 +6452,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6450,7 +6466,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6461,7 +6477,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6473,16 +6489,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6532,13 +6548,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6547,13 +6563,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>288</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6564,7 +6580,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6587,16 +6603,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>101</v>
+        <v>291</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6646,7 +6662,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6661,13 +6677,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6676,13 +6692,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6692,7 +6708,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6701,15 +6717,17 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6773,28 +6791,28 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6804,7 +6822,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6813,13 +6831,13 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6870,7 +6888,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6885,38 +6903,38 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6925,20 +6943,16 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6986,13 +7000,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -7001,13 +7015,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7018,15 +7032,15 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
@@ -7035,24 +7049,26 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7076,13 +7092,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7100,10 +7116,10 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>87</v>
@@ -7115,24 +7131,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7158,13 +7174,13 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7190,13 +7206,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7214,7 +7230,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>87</v>
@@ -7229,24 +7245,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7263,26 +7279,24 @@
         <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7306,11 +7320,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7328,13 +7344,13 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -7343,24 +7359,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>348</v>
+        <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7368,31 +7384,35 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>149</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7416,13 +7436,11 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7440,31 +7458,31 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>151</v>
+        <v>347</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>152</v>
+        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7472,18 +7490,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7495,17 +7513,15 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7542,31 +7558,31 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7586,11 +7602,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7606,23 +7622,21 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>353</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>355</v>
+        <v>237</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7658,19 +7672,19 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7682,16 +7696,16 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>360</v>
+        <v>152</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7702,7 +7716,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7713,7 +7727,7 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7722,19 +7736,23 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7782,28 +7800,28 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>151</v>
+        <v>363</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>152</v>
+        <v>365</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7814,18 +7832,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7837,17 +7855,15 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7884,31 +7900,31 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
@@ -7928,18 +7944,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7948,29 +7964,27 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>237</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -8000,40 +8014,40 @@
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>369</v>
+        <v>155</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>371</v>
+        <v>152</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8044,7 +8058,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8067,24 +8081,26 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8126,7 +8142,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8144,10 +8160,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8158,7 +8174,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8181,24 +8197,24 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>382</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8240,7 +8256,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8258,10 +8274,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8272,7 +8288,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8295,24 +8311,24 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8354,7 +8370,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8372,10 +8388,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8386,7 +8402,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8409,19 +8425,17 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8470,7 +8484,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8488,10 +8502,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8502,7 +8516,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8525,19 +8539,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>400</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8586,7 +8600,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8604,10 +8618,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8618,7 +8632,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8641,66 +8655,68 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="O56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="Q56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8715,16 +8731,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8732,7 +8748,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8749,31 +8765,27 @@
         <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>395</v>
+        <v>107</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
@@ -8794,13 +8806,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8818,7 +8830,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8833,62 +8845,66 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>163</v>
+        <v>400</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P58" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8908,11 +8924,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8930,7 +8948,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8945,55 +8963,57 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>149</v>
+        <v>436</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9018,13 +9038,11 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9042,7 +9060,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>151</v>
+        <v>434</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9054,38 +9072,38 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>152</v>
+        <v>442</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9097,17 +9115,15 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9144,31 +9160,31 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -9188,11 +9204,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9208,23 +9224,21 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>353</v>
+        <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>355</v>
+        <v>237</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9260,19 +9274,19 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9284,16 +9298,16 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>360</v>
+        <v>152</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9304,7 +9318,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9315,7 +9329,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9324,19 +9338,23 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9384,28 +9402,28 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>151</v>
+        <v>363</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>152</v>
+        <v>365</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9416,18 +9434,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9439,17 +9457,15 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9486,31 +9502,31 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9530,18 +9546,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9550,23 +9566,21 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>365</v>
+        <v>237</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9602,40 +9616,40 @@
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>369</v>
+        <v>155</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>371</v>
+        <v>152</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9646,7 +9660,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9669,18 +9683,20 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9728,7 +9744,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9746,10 +9762,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9760,7 +9776,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9783,24 +9799,24 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>382</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>79</v>
@@ -9842,7 +9858,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9860,10 +9876,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9874,7 +9890,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9897,24 +9913,24 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
@@ -9956,7 +9972,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9974,10 +9990,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9988,7 +10004,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10011,19 +10027,17 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10072,7 +10086,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10090,10 +10104,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10104,7 +10118,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10127,19 +10141,19 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>400</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10188,7 +10202,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10206,10 +10220,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10218,23 +10232,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10243,18 +10257,20 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10278,11 +10294,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X70" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y70" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10300,16 +10318,16 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>99</v>
@@ -10318,35 +10336,35 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10355,18 +10373,18 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="K71" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>464</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10390,13 +10408,11 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10414,16 +10430,16 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>99</v>
@@ -10432,21 +10448,21 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10454,13 +10470,13 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10469,16 +10485,18 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10526,10 +10544,10 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>87</v>
@@ -10541,38 +10559,38 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10581,13 +10599,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10638,10 +10656,10 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>87</v>
@@ -10653,28 +10671,28 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10684,7 +10702,7 @@
         <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10693,13 +10711,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10750,7 +10768,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10765,28 +10783,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10805,13 +10823,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10838,13 +10856,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10862,7 +10880,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10877,32 +10895,32 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>87</v>
@@ -10917,13 +10935,13 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10950,13 +10968,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10974,7 +10992,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10989,28 +11007,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11029,17 +11047,15 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11088,7 +11104,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11103,35 +11119,35 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>88</v>
@@ -11143,16 +11159,16 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>163</v>
+        <v>520</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11178,13 +11194,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>529</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11202,7 +11218,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11217,28 +11233,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11257,16 +11273,16 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>537</v>
+        <v>163</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11292,13 +11308,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11316,13 +11332,13 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
@@ -11331,38 +11347,38 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11371,15 +11387,17 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>163</v>
+        <v>542</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11404,13 +11422,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11428,7 +11446,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11443,16 +11461,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11460,7 +11478,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11483,13 +11501,13 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11516,13 +11534,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11540,7 +11558,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11561,18 +11579,18 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11580,13 +11598,13 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11595,17 +11613,15 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>163</v>
+        <v>556</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M82" t="s" s="2">
         <v>557</v>
       </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11630,13 +11646,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11654,7 +11670,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11669,24 +11685,24 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>561</v>
+        <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11694,13 +11710,13 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11709,16 +11725,16 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>565</v>
+        <v>163</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11744,13 +11760,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>79</v>
+        <v>563</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>79</v>
+        <v>564</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11768,7 +11784,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11783,16 +11799,16 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11800,7 +11816,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11820,18 +11836,20 @@
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="K84" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11880,7 +11898,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11895,28 +11913,28 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AK84" t="s" s="2">
+      <c r="AM84" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>580</v>
+        <v>79</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11926,7 +11944,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11935,17 +11953,15 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -11994,7 +12010,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12009,13 +12025,13 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12024,13 +12040,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>79</v>
+        <v>585</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12040,25 +12056,25 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12108,7 +12124,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12123,28 +12139,28 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>79</v>
+        <v>590</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>596</v>
+        <v>79</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12154,7 +12170,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12163,20 +12179,18 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>163</v>
+        <v>594</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>600</v>
-      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12200,13 +12214,13 @@
         <v>79</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>601</v>
+        <v>79</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>602</v>
+        <v>79</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12224,7 +12238,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12242,53 +12256,57 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>604</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>79</v>
+        <v>601</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>149</v>
+        <v>602</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+        <v>603</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>605</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12312,13 +12330,13 @@
         <v>79</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>79</v>
+        <v>606</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>79</v>
+        <v>607</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12336,50 +12354,50 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>151</v>
+        <v>600</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>152</v>
+        <v>608</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>79</v>
+        <v>609</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>79</v>
@@ -12391,17 +12409,15 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12438,31 +12454,31 @@
         <v>79</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
@@ -12482,20 +12498,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>607</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -12507,15 +12521,17 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>608</v>
+        <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>609</v>
+        <v>236</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12552,16 +12568,16 @@
         <v>79</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE90" t="s" s="2">
         <v>155</v>
@@ -12585,7 +12601,7 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12598,7 +12614,9 @@
       <c r="A91" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="B91" s="2"/>
+      <c r="B91" t="s" s="2">
+        <v>612</v>
+      </c>
       <c r="C91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12607,7 +12625,7 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>79</v>
@@ -12616,23 +12634,19 @@
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>353</v>
+        <v>613</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>354</v>
+        <v>614</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12680,7 +12694,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12692,16 +12706,16 @@
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12712,7 +12726,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12723,7 +12737,7 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>79</v>
@@ -12735,19 +12749,19 @@
         <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12796,13 +12810,13 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -12814,10 +12828,10 @@
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12826,9 +12840,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12839,28 +12853,32 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J93" t="s" s="2">
-        <v>614</v>
+        <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>615</v>
+        <v>409</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
       </c>
@@ -12908,13 +12926,13 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -12923,24 +12941,24 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>617</v>
+        <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>618</v>
+        <v>415</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>619</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12951,7 +12969,7 @@
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>88</v>
@@ -12960,16 +12978,16 @@
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>89</v>
+        <v>619</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13020,13 +13038,13 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -13035,10 +13053,10 @@
         <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>79</v>
+        <v>622</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>623</v>
@@ -13047,12 +13065,12 @@
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>79</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13063,19 +13081,19 @@
         <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>625</v>
+        <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>626</v>
@@ -13083,9 +13101,7 @@
       <c r="L95" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="M95" t="s" s="2">
-        <v>628</v>
-      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13134,13 +13150,13 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
@@ -13149,23 +13165,137 @@
         <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="AK95" t="s" s="2">
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL95" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AL96" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN95">
+  <autoFilter ref="A1:AN96">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13175,7 +13305,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI94">
+  <conditionalFormatting sqref="A2:AI95">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-other.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="638">
   <si>
     <t>Property</t>
   </si>
@@ -672,11 +672,17 @@
     <t>BeTaskReference</t>
   </si>
   <si>
-    <t>pps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+    <t>pss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pss-info}
 </t>
+  </si>
+  <si>
+    <t>BePSSInfo</t>
+  </si>
+  <si>
+    <t>Prescription Search Support Info</t>
   </si>
   <si>
     <t>recorder</t>
@@ -5122,10 +5128,10 @@
         <v>210</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5211,7 +5217,7 @@
         <v>131</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5233,10 +5239,10 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>135</v>
@@ -5322,11 +5328,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5348,16 +5354,16 @@
         <v>133</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5406,7 +5412,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5438,7 +5444,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5461,16 +5467,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5508,7 +5514,7 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
@@ -5518,7 +5524,7 @@
         <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5533,27 +5539,27 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
@@ -5575,16 +5581,16 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5634,7 +5640,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5649,24 +5655,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5778,11 +5784,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5804,13 +5810,13 @@
         <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5892,7 +5898,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5918,16 +5924,16 @@
         <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5952,13 +5958,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5976,7 +5982,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5997,7 +6003,7 @@
         <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6008,7 +6014,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6034,16 +6040,16 @@
         <v>163</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6071,10 +6077,10 @@
         <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6092,7 +6098,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6110,10 +6116,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6124,7 +6130,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6150,29 +6156,29 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6208,7 +6214,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6226,10 +6232,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6240,7 +6246,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6266,13 +6272,13 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6286,7 +6292,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6322,7 +6328,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6340,10 +6346,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6354,7 +6360,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6377,13 +6383,13 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6434,7 +6440,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6452,10 +6458,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6466,7 +6472,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6489,16 +6495,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6548,7 +6554,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6566,10 +6572,10 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6580,7 +6586,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6603,16 +6609,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6662,7 +6668,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6677,13 +6683,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6694,7 +6700,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6720,13 +6726,13 @@
         <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6776,7 +6782,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6791,13 +6797,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6808,11 +6814,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6831,13 +6837,13 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6888,7 +6894,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6903,13 +6909,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6920,11 +6926,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6943,13 +6949,13 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7000,7 +7006,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7015,13 +7021,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7032,11 +7038,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7055,19 +7061,19 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7116,7 +7122,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7131,13 +7137,13 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7148,7 +7154,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7174,13 +7180,13 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7206,13 +7212,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7230,7 +7236,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>87</v>
@@ -7245,24 +7251,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7288,13 +7294,13 @@
         <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7320,13 +7326,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7344,7 +7350,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>87</v>
@@ -7359,16 +7365,16 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7376,7 +7382,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7402,16 +7408,16 @@
         <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7440,7 +7446,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7458,7 +7464,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7476,13 +7482,13 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7490,7 +7496,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7602,11 +7608,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7628,13 +7634,13 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7716,7 +7722,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7739,19 +7745,19 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7800,7 +7806,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7818,10 +7824,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7832,7 +7838,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7944,11 +7950,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7970,13 +7976,13 @@
         <v>133</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8058,7 +8064,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8084,23 +8090,23 @@
         <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8142,7 +8148,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8160,10 +8166,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8174,7 +8180,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8200,13 +8206,13 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8256,7 +8262,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8274,10 +8280,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8288,7 +8294,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8314,21 +8320,21 @@
         <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8370,7 +8376,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8388,10 +8394,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8402,7 +8408,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8428,14 +8434,14 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8484,7 +8490,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8502,10 +8508,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8516,7 +8522,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8539,19 +8545,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8600,7 +8606,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8618,10 +8624,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8632,7 +8638,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8658,16 +8664,16 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8716,7 +8722,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8734,10 +8740,10 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8748,7 +8754,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8774,10 +8780,10 @@
         <v>107</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8785,7 +8791,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
@@ -8806,13 +8812,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8830,7 +8836,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8845,16 +8851,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8862,7 +8868,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8885,70 +8891,70 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Q58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="Q58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8963,13 +8969,13 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8980,11 +8986,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9006,13 +9012,13 @@
         <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9038,11 +9044,11 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9060,7 +9066,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9075,24 +9081,24 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9204,11 +9210,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9230,13 +9236,13 @@
         <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9318,7 +9324,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9341,19 +9347,19 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9402,7 +9408,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9420,10 +9426,10 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9434,7 +9440,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9546,11 +9552,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9572,13 +9578,13 @@
         <v>133</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9660,7 +9666,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9686,16 +9692,16 @@
         <v>101</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9744,7 +9750,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9762,10 +9768,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9776,7 +9782,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9802,13 +9808,13 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9858,7 +9864,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9876,10 +9882,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9890,7 +9896,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9916,21 +9922,21 @@
         <v>107</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
@@ -9972,7 +9978,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9990,10 +9996,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10004,7 +10010,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10030,14 +10036,14 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10086,7 +10092,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10104,10 +10110,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10118,7 +10124,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10141,19 +10147,19 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10202,7 +10208,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10220,10 +10226,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10234,7 +10240,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10260,16 +10266,16 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10318,7 +10324,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10336,10 +10342,10 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10350,11 +10356,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10376,13 +10382,13 @@
         <v>163</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10412,7 +10418,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10430,7 +10436,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10439,7 +10445,7 @@
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>99</v>
@@ -10448,21 +10454,21 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10485,17 +10491,17 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10544,7 +10550,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10562,10 +10568,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10576,7 +10582,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10599,13 +10605,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10656,7 +10662,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>87</v>
@@ -10671,28 +10677,28 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10711,13 +10717,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10768,7 +10774,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10783,28 +10789,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10823,13 +10829,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10880,7 +10886,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10895,24 +10901,24 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10935,13 +10941,13 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10971,10 +10977,10 @@
         <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10992,7 +10998,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11013,22 +11019,22 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11047,13 +11053,13 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11104,7 +11110,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11119,28 +11125,28 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11159,16 +11165,16 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11218,7 +11224,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11233,28 +11239,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11276,13 +11282,13 @@
         <v>163</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11311,10 +11317,10 @@
         <v>166</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11332,7 +11338,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11347,16 +11353,16 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11364,11 +11370,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11387,16 +11393,16 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11446,7 +11452,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11461,16 +11467,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11478,7 +11484,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11504,10 +11510,10 @@
         <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11537,10 +11543,10 @@
         <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11558,7 +11564,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11579,10 +11585,10 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11590,7 +11596,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11613,13 +11619,13 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11670,7 +11676,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11691,10 +11697,10 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11702,7 +11708,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11728,13 +11734,13 @@
         <v>163</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11763,10 +11769,10 @@
         <v>166</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11784,7 +11790,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11799,16 +11805,16 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11816,7 +11822,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11839,16 +11845,16 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11898,7 +11904,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11913,16 +11919,16 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -11930,7 +11936,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11953,13 +11959,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12010,7 +12016,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12025,13 +12031,13 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12042,11 +12048,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12065,16 +12071,16 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12124,7 +12130,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12139,13 +12145,13 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12156,7 +12162,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12179,16 +12185,16 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12238,7 +12244,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12256,10 +12262,10 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12270,11 +12276,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12296,16 +12302,16 @@
         <v>163</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12333,10 +12339,10 @@
         <v>166</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12354,7 +12360,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12372,21 +12378,21 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12498,11 +12504,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12524,13 +12530,13 @@
         <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12612,10 +12618,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>79</v>
@@ -12637,13 +12643,13 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12726,7 +12732,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12749,19 +12755,19 @@
         <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12810,7 +12816,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12828,10 +12834,10 @@
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12842,7 +12848,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12868,16 +12874,16 @@
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -12926,7 +12932,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12944,10 +12950,10 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -12958,7 +12964,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12981,13 +12987,13 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13038,7 +13044,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13053,24 +13059,24 @@
         <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13096,10 +13102,10 @@
         <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13150,7 +13156,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13168,10 +13174,10 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13182,7 +13188,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13205,16 +13211,16 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13264,7 +13270,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13279,13 +13285,13 @@
         <v>99</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-be-referralprescription-nursing-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-other.xlsx
@@ -574,11 +574,11 @@
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber-info}
 </t>
   </si>
   <si>
-    <t>Other parties that have to take part in the prescription.</t>
+    <t>Info about the other parties that have to take part in the prescription.</t>
   </si>
   <si>
     <t>Other practitioners that must take part in this prescripiton</t>
@@ -4201,7 +4201,7 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -4771,7 +4771,7 @@
         <v>87</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>

--- a/StructureDefinition-be-referralprescription-nursing-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-other.xlsx
@@ -425,7 +425,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -636,17 +636,17 @@
     <t>Request must leave draft status before</t>
   </si>
   <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
+    <t>performertasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-task-reference}
 </t>
   </si>
   <si>
-    <t>Takes the place of performer and performerType</t>
-  </si>
-  <si>
-    <t>Intended performers for this request</t>
+    <t>BePerformerTaskReference</t>
+  </si>
+  <si>
+    <t>List of references to the tasks performed by each performer</t>
   </si>
   <si>
     <t>proposalType</t>
@@ -1709,11 +1709,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
-    <t>Requested performer - typically reference to practitioner but could also be reference to related person by business identifier or Reference.display</t>
+    <t>Requested performer - typically reference to practitionerroles</t>
   </si>
   <si>
     <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
@@ -2338,7 +2338,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="135.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.71484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>78</v>
@@ -11381,7 +11381,7 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>88</v>
